--- a/database/NorthPort.xlsx
+++ b/database/NorthPort.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -51,8 +46,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,22 +62,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -133,9 +457,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -148,17 +714,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,22 +1055,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M279"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G280" sqref="G280"/>
+      <selection pane="bottomRight" activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -471,7 +1082,7 @@
     <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,7 +1144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>41642</v>
       </c>
@@ -574,7 +1185,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>41649</v>
       </c>
@@ -615,7 +1226,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>41656</v>
       </c>
@@ -653,10 +1264,10 @@
         <v>6.3</v>
       </c>
       <c r="M5">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>41663</v>
       </c>
@@ -697,7 +1308,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>41680</v>
       </c>
@@ -738,7 +1349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>41684</v>
       </c>
@@ -779,7 +1390,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>41691</v>
       </c>
@@ -811,7 +1422,7 @@
         <v>67.3</v>
       </c>
       <c r="K9">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
         <v>2.5</v>
@@ -820,7 +1431,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>41698</v>
       </c>
@@ -861,7 +1472,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>41705</v>
       </c>
@@ -902,7 +1513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>41712</v>
       </c>
@@ -943,7 +1554,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>41719</v>
       </c>
@@ -966,13 +1577,13 @@
         <v>116</v>
       </c>
       <c r="H13" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I13" s="3">
         <v>4.3</v>
       </c>
       <c r="J13" s="4">
-        <v>67.900000000000006</v>
+        <v>67.9</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -984,7 +1595,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>41726</v>
       </c>
@@ -1013,19 +1624,19 @@
         <v>3</v>
       </c>
       <c r="J14" s="4">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="K14">
         <v>1.6</v>
       </c>
       <c r="L14">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="M14">
         <v>33.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>41733</v>
       </c>
@@ -1039,7 +1650,7 @@
         <v>127</v>
       </c>
       <c r="E15">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F15">
         <v>9.6</v>
@@ -1066,7 +1677,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>41740</v>
       </c>
@@ -1095,7 +1706,7 @@
         <v>7.4</v>
       </c>
       <c r="J16" s="4">
-        <v>67.900000000000006</v>
+        <v>67.9</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -1107,7 +1718,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>41747</v>
       </c>
@@ -1148,7 +1759,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>41754</v>
       </c>
@@ -1189,7 +1800,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>41761</v>
       </c>
@@ -1221,7 +1832,7 @@
         <v>42.5</v>
       </c>
       <c r="K19">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1230,7 +1841,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>41768</v>
       </c>
@@ -1271,7 +1882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>41775</v>
       </c>
@@ -1312,7 +1923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>41782</v>
       </c>
@@ -1353,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>41789</v>
       </c>
@@ -1391,10 +2002,10 @@
         <v>1.6</v>
       </c>
       <c r="M23">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>41796</v>
       </c>
@@ -1435,7 +2046,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>41803</v>
       </c>
@@ -1476,7 +2087,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>41810</v>
       </c>
@@ -1517,7 +2128,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>41816</v>
       </c>
@@ -1558,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>41823</v>
       </c>
@@ -1596,10 +2207,10 @@
         <v>0.6</v>
       </c>
       <c r="M28">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>41831</v>
       </c>
@@ -1616,7 +2227,7 @@
         <v>8.9</v>
       </c>
       <c r="F29">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G29">
         <v>89.7</v>
@@ -1640,7 +2251,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>41838</v>
       </c>
@@ -1681,7 +2292,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>41845</v>
       </c>
@@ -1701,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>77.599999999999994</v>
+        <v>77.6</v>
       </c>
       <c r="H31" s="2">
         <v>6.5</v>
@@ -1722,7 +2333,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>41852</v>
       </c>
@@ -1739,7 +2350,7 @@
         <v>13.3</v>
       </c>
       <c r="F32">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G32">
         <v>74</v>
@@ -1763,7 +2374,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>41859</v>
       </c>
@@ -1804,7 +2415,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>41866</v>
       </c>
@@ -1845,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>41873</v>
       </c>
@@ -1886,7 +2497,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>41880</v>
       </c>
@@ -1909,13 +2520,13 @@
         <v>69</v>
       </c>
       <c r="H36" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="I36" s="3">
         <v>8.1</v>
       </c>
       <c r="J36" s="4">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="K36">
         <v>2.5</v>
@@ -1927,7 +2538,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>41887</v>
       </c>
@@ -1944,7 +2555,7 @@
         <v>10.8</v>
       </c>
       <c r="F37">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="G37">
         <v>70</v>
@@ -1956,19 +2567,19 @@
         <v>7.6</v>
       </c>
       <c r="J37" s="4">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="K37">
         <v>2.1</v>
       </c>
       <c r="L37">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="M37">
         <v>5.2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>41894</v>
       </c>
@@ -2009,7 +2620,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>41901</v>
       </c>
@@ -2041,16 +2652,16 @@
         <v>25.7</v>
       </c>
       <c r="K39">
-        <v>0.79999999999999905</v>
+        <v>0.799999999999999</v>
       </c>
       <c r="L39">
         <v>2.4</v>
       </c>
       <c r="M39">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>41908</v>
       </c>
@@ -2082,16 +2693,16 @@
         <v>29.7</v>
       </c>
       <c r="K40">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L40">
         <v>0.6</v>
       </c>
       <c r="M40">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>41915</v>
       </c>
@@ -2132,7 +2743,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>41922</v>
       </c>
@@ -2158,7 +2769,7 @@
         <v>3.5</v>
       </c>
       <c r="I42" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J42" s="4">
         <v>23.7</v>
@@ -2173,7 +2784,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41929</v>
       </c>
@@ -2214,7 +2825,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>41936</v>
       </c>
@@ -2255,7 +2866,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>41943</v>
       </c>
@@ -2272,7 +2883,7 @@
         <v>22.3</v>
       </c>
       <c r="F45">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="G45">
         <v>92</v>
@@ -2296,7 +2907,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>41950</v>
       </c>
@@ -2310,7 +2921,7 @@
         <v>116</v>
       </c>
       <c r="E46">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F46">
         <v>16.3</v>
@@ -2337,7 +2948,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>41957</v>
       </c>
@@ -2378,7 +2989,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>41964</v>
       </c>
@@ -2419,7 +3030,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>41971</v>
       </c>
@@ -2439,7 +3050,7 @@
         <v>23.5</v>
       </c>
       <c r="G49">
-        <v>133.19999999999999</v>
+        <v>133.2</v>
       </c>
       <c r="H49" s="2">
         <v>6.4</v>
@@ -2460,7 +3071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>41978</v>
       </c>
@@ -2501,18 +3112,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>41985</v>
       </c>
       <c r="B51" s="2">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="C51" s="3">
         <v>30</v>
       </c>
       <c r="D51" s="4">
-        <v>135.30000000000001</v>
+        <v>135.3</v>
       </c>
       <c r="E51">
         <v>23.4</v>
@@ -2530,7 +3141,7 @@
         <v>8.4</v>
       </c>
       <c r="J51" s="4">
-        <v>64.400000000000006</v>
+        <v>64.4</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -2542,7 +3153,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>41992</v>
       </c>
@@ -2583,7 +3194,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>41999</v>
       </c>
@@ -2621,10 +3232,10 @@
         <v>1.5</v>
       </c>
       <c r="M53">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>42006</v>
       </c>
@@ -2635,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>134.80000000000001</v>
+        <v>134.8</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -2644,10 +3255,10 @@
         <v>13</v>
       </c>
       <c r="G54">
-        <v>142.30000000000001</v>
+        <v>142.3</v>
       </c>
       <c r="H54" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="I54" s="3">
         <v>3.3</v>
@@ -2665,7 +3276,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>42013</v>
       </c>
@@ -2691,7 +3302,7 @@
         <v>3.7</v>
       </c>
       <c r="I55" s="3">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J55" s="4">
         <v>66</v>
@@ -2706,7 +3317,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>42020</v>
       </c>
@@ -2726,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="G56">
-        <v>136.69999999999999</v>
+        <v>136.7</v>
       </c>
       <c r="H56" s="2">
         <v>3.3</v>
@@ -2747,7 +3358,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>42027</v>
       </c>
@@ -2773,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="J57" s="4">
         <v>52.3</v>
@@ -2788,7 +3399,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>42034</v>
       </c>
@@ -2829,7 +3440,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>42041</v>
       </c>
@@ -2870,7 +3481,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>42048</v>
       </c>
@@ -2899,7 +3510,7 @@
         <v>2.4</v>
       </c>
       <c r="J60" s="4">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2911,7 +3522,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>42055</v>
       </c>
@@ -2931,7 +3542,7 @@
         <v>0.5</v>
       </c>
       <c r="G61">
-        <v>144.80000000000001</v>
+        <v>144.8</v>
       </c>
       <c r="H61" s="2">
         <v>3.3</v>
@@ -2940,7 +3551,7 @@
         <v>3.2</v>
       </c>
       <c r="J61" s="4">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2952,7 +3563,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>42061</v>
       </c>
@@ -2960,7 +3571,7 @@
         <v>0.6</v>
       </c>
       <c r="C62" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="D62" s="4">
         <v>143</v>
@@ -2993,7 +3604,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>42069</v>
       </c>
@@ -3004,7 +3615,7 @@
         <v>13.4</v>
       </c>
       <c r="D63" s="4">
-        <v>130.19999999999999</v>
+        <v>130.2</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -3034,7 +3645,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>42076</v>
       </c>
@@ -3045,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="4">
-        <v>133.19999999999999</v>
+        <v>133.2</v>
       </c>
       <c r="E64">
         <v>16.5</v>
@@ -3075,7 +3686,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>42083</v>
       </c>
@@ -3116,7 +3727,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>42090</v>
       </c>
@@ -3157,7 +3768,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>42097</v>
       </c>
@@ -3198,7 +3809,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>42104</v>
       </c>
@@ -3239,7 +3850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>42111</v>
       </c>
@@ -3280,7 +3891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>42118</v>
       </c>
@@ -3297,7 +3908,7 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="G70">
         <v>193</v>
@@ -3321,7 +3932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>42125</v>
       </c>
@@ -3362,7 +3973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>42132</v>
       </c>
@@ -3373,7 +3984,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="4">
-        <v>138.19999999999999</v>
+        <v>138.2</v>
       </c>
       <c r="E72">
         <v>3.6</v>
@@ -3388,7 +3999,7 @@
         <v>2.9</v>
       </c>
       <c r="I72" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="J72" s="4">
         <v>51.3</v>
@@ -3403,7 +4014,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>42139</v>
       </c>
@@ -3444,7 +4055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>42144</v>
       </c>
@@ -3479,13 +4090,13 @@
         <v>1.57</v>
       </c>
       <c r="L74">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="M74">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>42153</v>
       </c>
@@ -3502,7 +4113,7 @@
         <v>6.3</v>
       </c>
       <c r="F75">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="G75">
         <v>191.7</v>
@@ -3526,7 +4137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>42163</v>
       </c>
@@ -3567,7 +4178,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>42167</v>
       </c>
@@ -3608,7 +4219,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>42174</v>
       </c>
@@ -3649,7 +4260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>42181</v>
       </c>
@@ -3690,7 +4301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>42188</v>
       </c>
@@ -3731,7 +4342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>42195</v>
       </c>
@@ -3772,7 +4383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>42202</v>
       </c>
@@ -3813,7 +4424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>42209</v>
       </c>
@@ -3854,7 +4465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>42216</v>
       </c>
@@ -3889,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="M84">
         <v>5.9</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>42223</v>
       </c>
@@ -3921,7 +4532,7 @@
         <v>13.8</v>
       </c>
       <c r="I85" s="3">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="J85" s="4">
         <v>47.6</v>
@@ -3933,10 +4544,10 @@
         <v>0.9</v>
       </c>
       <c r="M85">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>42230</v>
       </c>
@@ -3953,7 +4564,7 @@
         <v>1.8</v>
       </c>
       <c r="F86">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="G86">
         <v>120.1</v>
@@ -3977,7 +4588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>42237</v>
       </c>
@@ -4018,7 +4629,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>42244</v>
       </c>
@@ -4059,7 +4670,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>42253</v>
       </c>
@@ -4076,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="G89">
         <v>108.4</v>
@@ -4100,7 +4711,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>42258</v>
       </c>
@@ -4141,7 +4752,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>42265</v>
       </c>
@@ -4182,7 +4793,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>42272</v>
       </c>
@@ -4223,7 +4834,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>42279</v>
       </c>
@@ -4264,7 +4875,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>42286</v>
       </c>
@@ -4305,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>42293</v>
       </c>
@@ -4346,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>42300</v>
       </c>
@@ -4387,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>42307</v>
       </c>
@@ -4428,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>42314</v>
       </c>
@@ -4451,10 +5062,10 @@
         <v>116.5</v>
       </c>
       <c r="H98" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I98" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J98" s="4">
         <v>18.5</v>
@@ -4469,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>42321</v>
       </c>
@@ -4498,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="4">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4510,12 +5121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>42328</v>
       </c>
       <c r="B100" s="2">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="C100" s="3">
         <v>15</v>
@@ -4551,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>42335</v>
       </c>
@@ -4592,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>42342</v>
       </c>
@@ -4633,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>42349</v>
       </c>
@@ -4674,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>42356</v>
       </c>
@@ -4715,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>42363</v>
       </c>
@@ -4756,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>42370</v>
       </c>
@@ -4797,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>42377</v>
       </c>
@@ -4838,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>42384</v>
       </c>
@@ -4879,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>42391</v>
       </c>
@@ -4920,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>42398</v>
       </c>
@@ -4961,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>42405</v>
       </c>
@@ -5002,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>42412</v>
       </c>
@@ -5031,7 +5642,7 @@
         <v>0.4</v>
       </c>
       <c r="J112" s="4">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5043,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>42419</v>
       </c>
@@ -5072,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="4">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5084,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>42425</v>
       </c>
@@ -5104,7 +5715,7 @@
         <v>7.4</v>
       </c>
       <c r="G114">
-        <v>139.30000000000001</v>
+        <v>139.3</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -5113,7 +5724,7 @@
         <v>1.7</v>
       </c>
       <c r="J114" s="4">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5125,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>42433</v>
       </c>
@@ -5145,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="G115">
-        <v>138.69999999999999</v>
+        <v>138.7</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -5166,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>42440</v>
       </c>
@@ -5186,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="G116">
-        <v>137.19999999999999</v>
+        <v>137.2</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -5207,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>42447</v>
       </c>
@@ -5248,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>42454</v>
       </c>
@@ -5289,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>42461</v>
       </c>
@@ -5330,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>42468</v>
       </c>
@@ -5359,7 +5970,7 @@
         <v>1.8</v>
       </c>
       <c r="J120" s="4">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5371,12 +5982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>42475</v>
       </c>
       <c r="B121" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="C121" s="3">
         <v>1.3</v>
@@ -5391,7 +6002,7 @@
         <v>2.1</v>
       </c>
       <c r="G121">
-        <v>142.19999999999999</v>
+        <v>142.2</v>
       </c>
       <c r="H121" s="2">
         <v>2.4</v>
@@ -5412,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>42482</v>
       </c>
@@ -5453,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>42489</v>
       </c>
@@ -5494,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>42496</v>
       </c>
@@ -5505,7 +6116,7 @@
         <v>6.1</v>
       </c>
       <c r="D124" s="4">
-        <v>129.80000000000001</v>
+        <v>129.8</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -5535,12 +6146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>42503</v>
       </c>
       <c r="B125" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C125" s="3">
         <v>6</v>
@@ -5555,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>151.19999999999999</v>
+        <v>151.2</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -5576,12 +6187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>42510</v>
       </c>
       <c r="B126" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="C126" s="3">
         <v>3</v>
@@ -5617,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>42517</v>
       </c>
@@ -5658,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>42524</v>
       </c>
@@ -5687,7 +6298,7 @@
         <v>4.3</v>
       </c>
       <c r="J128" s="4">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5699,12 +6310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>42531</v>
       </c>
       <c r="B129" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C129" s="3">
         <v>2.4</v>
@@ -5740,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>42538</v>
       </c>
@@ -5754,7 +6365,7 @@
         <v>96</v>
       </c>
       <c r="E130">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F130">
         <v>11.1</v>
@@ -5781,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>42545</v>
       </c>
@@ -5822,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>42552</v>
       </c>
@@ -5863,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>42559</v>
       </c>
@@ -5883,10 +6494,10 @@
         <v>10.3</v>
       </c>
       <c r="G133">
-        <v>154.69999999999999</v>
+        <v>154.7</v>
       </c>
       <c r="H133" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="I133" s="3">
         <v>6.65</v>
@@ -5904,15 +6515,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>42566</v>
       </c>
       <c r="B134" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="C134" s="3">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D134" s="4">
         <v>88</v>
@@ -5924,7 +6535,7 @@
         <v>14</v>
       </c>
       <c r="G134">
-        <v>152.69999999999999</v>
+        <v>152.7</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5945,12 +6556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>42573</v>
       </c>
       <c r="B135" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="C135" s="3">
         <v>3.2</v>
@@ -5986,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>42580</v>
       </c>
@@ -6027,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>42587</v>
       </c>
@@ -6068,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>42594</v>
       </c>
@@ -6082,10 +6693,10 @@
         <v>100</v>
       </c>
       <c r="E138">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="F138">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="G138">
         <v>146.4</v>
@@ -6109,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>42601</v>
       </c>
@@ -6150,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>42608</v>
       </c>
@@ -6158,13 +6769,13 @@
         <v>2.9</v>
       </c>
       <c r="C140" s="3">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="D140" s="4">
         <v>82</v>
       </c>
       <c r="E140">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F140">
         <v>3.7</v>
@@ -6179,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="J140" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6191,12 +6802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>42615</v>
       </c>
       <c r="B141" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="C141" s="3">
         <v>18.7</v>
@@ -6232,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>42622</v>
       </c>
@@ -6252,10 +6863,10 @@
         <v>5.8</v>
       </c>
       <c r="G142">
-        <v>148.69999999999999</v>
+        <v>148.7</v>
       </c>
       <c r="H142" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I142" s="3">
         <v>6</v>
@@ -6273,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>42629</v>
       </c>
@@ -6314,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>42636</v>
       </c>
@@ -6355,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>42650</v>
       </c>
@@ -6375,7 +6986,7 @@
         <v>15.9</v>
       </c>
       <c r="G145">
-        <v>141.69999999999999</v>
+        <v>141.7</v>
       </c>
       <c r="H145" s="2">
         <v>3.1</v>
@@ -6396,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>42657</v>
       </c>
@@ -6404,7 +7015,7 @@
         <v>9.1</v>
       </c>
       <c r="C146" s="3">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="D146" s="4">
         <v>82</v>
@@ -6416,7 +7027,7 @@
         <v>5.9</v>
       </c>
       <c r="G146">
-        <v>131.69999999999999</v>
+        <v>131.7</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -6437,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>42664</v>
       </c>
@@ -6478,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>42671</v>
       </c>
@@ -6519,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>42678</v>
       </c>
@@ -6536,13 +7147,13 @@
         <v>27.9</v>
       </c>
       <c r="F149">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G149">
-        <v>157.19999999999999</v>
+        <v>157.2</v>
       </c>
       <c r="H149" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="I149" s="3">
         <v>2</v>
@@ -6560,7 +7171,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>42685</v>
       </c>
@@ -6601,7 +7212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>42692</v>
       </c>
@@ -6642,7 +7253,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>42699</v>
       </c>
@@ -6683,7 +7294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>42709</v>
       </c>
@@ -6712,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="4">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="K153">
         <v>6.2</v>
@@ -6721,10 +7332,10 @@
         <v>7</v>
       </c>
       <c r="M153">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>42716</v>
       </c>
@@ -6765,7 +7376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>42723</v>
       </c>
@@ -6806,7 +7417,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>42730</v>
       </c>
@@ -6832,13 +7443,13 @@
         <v>6.9</v>
       </c>
       <c r="I156" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="J156" s="4">
         <v>31.8</v>
       </c>
       <c r="K156">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L156">
         <v>6.1</v>
@@ -6847,7 +7458,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>42737</v>
       </c>
@@ -6873,10 +7484,10 @@
         <v>13.3</v>
       </c>
       <c r="I157" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="J157" s="4">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="K157">
         <v>7.1</v>
@@ -6888,7 +7499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>42744</v>
       </c>
@@ -6929,7 +7540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>42748</v>
       </c>
@@ -6970,7 +7581,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>42755</v>
       </c>
@@ -7011,7 +7622,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
         <v>42770</v>
       </c>
@@ -7052,7 +7663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
         <v>42776</v>
       </c>
@@ -7093,7 +7704,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
         <v>42783</v>
       </c>
@@ -7110,7 +7721,7 @@
         <v>34.9</v>
       </c>
       <c r="F163">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="G163">
         <v>185</v>
@@ -7134,7 +7745,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
         <v>42790</v>
       </c>
@@ -7175,7 +7786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
         <v>42801</v>
       </c>
@@ -7216,7 +7827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
         <v>42807</v>
       </c>
@@ -7230,7 +7841,7 @@
         <v>127</v>
       </c>
       <c r="E166">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F166">
         <v>34</v>
@@ -7257,7 +7868,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
         <v>42814</v>
       </c>
@@ -7274,7 +7885,7 @@
         <v>29.3</v>
       </c>
       <c r="F167">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="G167">
         <v>196</v>
@@ -7289,7 +7900,7 @@
         <v>58.4</v>
       </c>
       <c r="K167">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="L167">
         <v>7.4</v>
@@ -7298,7 +7909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
         <v>42821</v>
       </c>
@@ -7306,7 +7917,7 @@
         <v>19.3</v>
       </c>
       <c r="C168" s="3">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="D168" s="4">
         <v>124</v>
@@ -7336,10 +7947,10 @@
         <v>2.6</v>
       </c>
       <c r="M168">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
         <v>42835</v>
       </c>
@@ -7371,7 +7982,7 @@
         <v>57.1</v>
       </c>
       <c r="K169">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L169">
         <v>5</v>
@@ -7380,7 +7991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
         <v>42842</v>
       </c>
@@ -7406,7 +8017,7 @@
         <v>4.5</v>
       </c>
       <c r="I170" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J170" s="4">
         <v>59.4</v>
@@ -7421,7 +8032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
         <v>42849</v>
       </c>
@@ -7462,7 +8073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
         <v>42858</v>
       </c>
@@ -7476,7 +8087,7 @@
         <v>102</v>
       </c>
       <c r="E172">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F172">
         <v>20.3</v>
@@ -7503,7 +8114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
         <v>42863</v>
       </c>
@@ -7544,7 +8155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
         <v>42870</v>
       </c>
@@ -7585,12 +8196,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
         <v>42877</v>
       </c>
       <c r="B175" s="2">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="C175" s="3">
         <v>17.8</v>
@@ -7626,7 +8237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
         <v>42885</v>
       </c>
@@ -7667,7 +8278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
         <v>42891</v>
       </c>
@@ -7708,7 +8319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13">
       <c r="A178" s="1">
         <v>42898</v>
       </c>
@@ -7731,7 +8342,7 @@
         <v>171.8</v>
       </c>
       <c r="H178" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="I178" s="3">
         <v>6.8</v>
@@ -7749,7 +8360,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13">
       <c r="A179" s="1">
         <v>42905</v>
       </c>
@@ -7766,7 +8377,7 @@
         <v>15.9</v>
       </c>
       <c r="F179">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="G179">
         <v>167.6</v>
@@ -7790,7 +8401,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13">
       <c r="A180" s="1">
         <v>42912</v>
       </c>
@@ -7831,7 +8442,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13">
       <c r="A181" s="1">
         <v>42919</v>
       </c>
@@ -7872,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13">
       <c r="A182" s="1">
         <v>42926</v>
       </c>
@@ -7904,7 +8515,7 @@
         <v>50.4</v>
       </c>
       <c r="K182">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L182">
         <v>6.4</v>
@@ -7913,7 +8524,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:13">
       <c r="A183" s="1">
         <v>42933</v>
       </c>
@@ -7936,7 +8547,7 @@
         <v>171</v>
       </c>
       <c r="H183" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="I183" s="3">
         <v>9.1</v>
@@ -7954,7 +8565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:13">
       <c r="A184" s="1">
         <v>42941</v>
       </c>
@@ -7962,7 +8573,7 @@
         <v>8.4</v>
       </c>
       <c r="C184" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="D184" s="4">
         <v>117.2</v>
@@ -7980,7 +8591,7 @@
         <v>4.7</v>
       </c>
       <c r="I184" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="J184" s="4">
         <v>46.4</v>
@@ -7995,7 +8606,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:13">
       <c r="A185" s="1">
         <v>42947</v>
       </c>
@@ -8018,7 +8629,7 @@
         <v>169</v>
       </c>
       <c r="H185" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I185" s="3">
         <v>2.6</v>
@@ -8036,7 +8647,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:13">
       <c r="A186" s="1">
         <v>42954</v>
       </c>
@@ -8077,12 +8688,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:13">
       <c r="A187" s="1">
         <v>42961</v>
       </c>
       <c r="B187" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="C187" s="3">
         <v>17</v>
@@ -8118,7 +8729,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13">
       <c r="A188" s="1">
         <v>42968</v>
       </c>
@@ -8141,7 +8752,7 @@
         <v>171</v>
       </c>
       <c r="H188" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="I188" s="3">
         <v>0.2</v>
@@ -8159,7 +8770,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13">
       <c r="A189" s="1">
         <v>42975</v>
       </c>
@@ -8176,13 +8787,13 @@
         <v>14.9</v>
       </c>
       <c r="F189">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="G189">
         <v>166</v>
       </c>
       <c r="H189" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="I189" s="3">
         <v>5.2</v>
@@ -8200,7 +8811,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13">
       <c r="A190" s="1">
         <v>42979</v>
       </c>
@@ -8214,7 +8825,7 @@
         <v>90.2</v>
       </c>
       <c r="E190">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="F190">
         <v>14.6</v>
@@ -8223,7 +8834,7 @@
         <v>170.3</v>
       </c>
       <c r="H190" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="I190" s="3">
         <v>11.4</v>
@@ -8235,13 +8846,13 @@
         <v>2</v>
       </c>
       <c r="L190">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="M190">
         <v>14.7</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13">
       <c r="A191" s="1">
         <v>42986</v>
       </c>
@@ -8264,7 +8875,7 @@
         <v>172</v>
       </c>
       <c r="H191" s="2">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I191" s="3">
         <v>6.7</v>
@@ -8273,7 +8884,7 @@
         <v>53</v>
       </c>
       <c r="K191">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="L191">
         <v>8.1</v>
@@ -8282,7 +8893,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13">
       <c r="A192" s="1">
         <v>42993</v>
       </c>
@@ -8308,7 +8919,7 @@
         <v>5.6</v>
       </c>
       <c r="I192" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J192" s="4">
         <v>56.3</v>
@@ -8317,18 +8928,18 @@
         <v>1.5</v>
       </c>
       <c r="L192">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="M192">
         <v>12.5</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:13">
       <c r="A193" s="1">
         <v>43000</v>
       </c>
       <c r="B193" s="2">
-        <v>9.8000000000000096</v>
+        <v>9.80000000000001</v>
       </c>
       <c r="C193" s="3">
         <v>7.4</v>
@@ -8361,10 +8972,10 @@
         <v>4.3</v>
       </c>
       <c r="M193">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="1">
         <v>43007</v>
       </c>
@@ -8405,7 +9016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:13">
       <c r="A195" s="1">
         <v>43014</v>
       </c>
@@ -8446,7 +9057,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:13">
       <c r="A196" s="1">
         <v>43021</v>
       </c>
@@ -8463,13 +9074,13 @@
         <v>28.6</v>
       </c>
       <c r="F196">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="G196">
         <v>176</v>
       </c>
       <c r="H196" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I196" s="3">
         <v>3.5</v>
@@ -8481,21 +9092,21 @@
         <v>3.9</v>
       </c>
       <c r="L196">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="M196">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="1">
         <v>43028</v>
       </c>
       <c r="B197" s="2">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="C197" s="3">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="D197" s="4">
         <v>104.1</v>
@@ -8525,10 +9136,10 @@
         <v>7.4</v>
       </c>
       <c r="M197">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="1">
         <v>43035</v>
       </c>
@@ -8569,7 +9180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:13">
       <c r="A199" s="1">
         <v>43042</v>
       </c>
@@ -8610,7 +9221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:13">
       <c r="A200" s="1">
         <v>43049</v>
       </c>
@@ -8651,7 +9262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:13">
       <c r="A201" s="1">
         <v>43056</v>
       </c>
@@ -8665,10 +9276,10 @@
         <v>137</v>
       </c>
       <c r="E201">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F201">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="G201">
         <v>208</v>
@@ -8686,13 +9297,13 @@
         <v>11.7</v>
       </c>
       <c r="L201">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="M201">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:13">
       <c r="A202" s="1">
         <v>43063</v>
       </c>
@@ -8733,7 +9344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:13">
       <c r="A203" s="1">
         <v>43070</v>
       </c>
@@ -8741,7 +9352,7 @@
         <v>41.3</v>
       </c>
       <c r="C203" s="3">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="D203" s="4">
         <v>149</v>
@@ -8756,13 +9367,13 @@
         <v>188.8</v>
       </c>
       <c r="H203" s="2">
-        <v>8.9000000000000092</v>
+        <v>8.90000000000001</v>
       </c>
       <c r="I203" s="3">
         <v>4.3</v>
       </c>
       <c r="J203" s="4">
-        <v>75.900000000000006</v>
+        <v>75.9</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -8774,7 +9385,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:13">
       <c r="A204" s="1">
         <v>43077</v>
       </c>
@@ -8797,7 +9408,7 @@
         <v>194</v>
       </c>
       <c r="H204" s="2">
-        <v>6.0999999999999899</v>
+        <v>6.09999999999999</v>
       </c>
       <c r="I204" s="3">
         <v>3.7</v>
@@ -8815,7 +9426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:13">
       <c r="A205" s="1">
         <v>43084</v>
       </c>
@@ -8832,19 +9443,19 @@
         <v>29.8</v>
       </c>
       <c r="F205">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="G205">
         <v>186</v>
       </c>
       <c r="H205" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="I205" s="3">
         <v>7.4</v>
       </c>
       <c r="J205" s="4">
-        <v>79.599999999999994</v>
+        <v>79.6</v>
       </c>
       <c r="K205">
         <v>3</v>
@@ -8856,7 +9467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:13">
       <c r="A206" s="1">
         <v>43091</v>
       </c>
@@ -8897,7 +9508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:13">
       <c r="A207" s="1">
         <v>43098</v>
       </c>
@@ -8908,7 +9519,7 @@
         <v>44.6</v>
       </c>
       <c r="D207" s="4">
-        <v>134.30000000000001</v>
+        <v>134.3</v>
       </c>
       <c r="E207">
         <v>22.6</v>
@@ -8938,7 +9549,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:13">
       <c r="A208" s="1">
         <v>43105</v>
       </c>
@@ -8949,7 +9560,7 @@
         <v>23.1</v>
       </c>
       <c r="D208" s="4">
-        <v>136.30000000000001</v>
+        <v>136.3</v>
       </c>
       <c r="E208">
         <v>14.8</v>
@@ -8961,13 +9572,13 @@
         <v>171.8</v>
       </c>
       <c r="H208" s="2">
-        <v>3.9999999999999898</v>
+        <v>3.99999999999999</v>
       </c>
       <c r="I208" s="3">
         <v>2.4</v>
       </c>
       <c r="J208" s="4">
-        <v>69.099999999999994</v>
+        <v>69.1</v>
       </c>
       <c r="K208">
         <v>2.6</v>
@@ -8976,10 +9587,10 @@
         <v>3.5</v>
       </c>
       <c r="M208">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="1">
         <v>43112</v>
       </c>
@@ -8996,7 +9607,7 @@
         <v>10</v>
       </c>
       <c r="F209">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="G209">
         <v>172</v>
@@ -9020,7 +9631,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:13">
       <c r="A210" s="1">
         <v>43119</v>
       </c>
@@ -9037,7 +9648,7 @@
         <v>11.1</v>
       </c>
       <c r="F210">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="G210">
         <v>167</v>
@@ -9058,10 +9669,10 @@
         <v>4.8</v>
       </c>
       <c r="M210">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="1">
         <v>43126</v>
       </c>
@@ -9084,25 +9695,25 @@
         <v>162</v>
       </c>
       <c r="H211" s="2">
-        <v>5.5999999999999899</v>
+        <v>5.59999999999999</v>
       </c>
       <c r="I211" s="3">
         <v>5.5</v>
       </c>
       <c r="J211" s="4">
-        <v>69.599999999999994</v>
+        <v>69.6</v>
       </c>
       <c r="K211">
         <v>3.1</v>
       </c>
       <c r="L211">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="M211">
         <v>18.3</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:13">
       <c r="A212" s="1">
         <v>43133</v>
       </c>
@@ -9116,7 +9727,7 @@
         <v>133.1</v>
       </c>
       <c r="E212">
-        <v>5.9000000000000101</v>
+        <v>5.90000000000001</v>
       </c>
       <c r="F212">
         <v>12.9</v>
@@ -9125,13 +9736,13 @@
         <v>155</v>
       </c>
       <c r="H212" s="2">
-        <v>4.8000000000000096</v>
+        <v>4.80000000000001</v>
       </c>
       <c r="I212" s="3">
         <v>6</v>
       </c>
       <c r="J212" s="4">
-        <v>68.400000000000006</v>
+        <v>68.4</v>
       </c>
       <c r="K212">
         <v>2.5</v>
@@ -9143,12 +9754,12 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:13">
       <c r="A213" s="1">
         <v>43140</v>
       </c>
       <c r="B213" s="2">
-        <v>6.4000000000000101</v>
+        <v>6.40000000000001</v>
       </c>
       <c r="C213" s="3">
         <v>11.75</v>
@@ -9157,7 +9768,7 @@
         <v>127.75</v>
       </c>
       <c r="E213">
-        <v>2.0999999999999899</v>
+        <v>2.09999999999999</v>
       </c>
       <c r="F213">
         <v>7.1</v>
@@ -9166,10 +9777,10 @@
         <v>150</v>
       </c>
       <c r="H213" s="2">
-        <v>5.7999999999999901</v>
+        <v>5.79999999999999</v>
       </c>
       <c r="I213" s="3">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="J213" s="4">
         <v>65</v>
@@ -9184,7 +9795,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:13">
       <c r="A214" s="1">
         <v>43147</v>
       </c>
@@ -9198,7 +9809,7 @@
         <v>114</v>
       </c>
       <c r="E214">
-        <v>1.0999999999999901</v>
+        <v>1.09999999999999</v>
       </c>
       <c r="F214">
         <v>3.1</v>
@@ -9210,7 +9821,7 @@
         <v>0.999999999999998</v>
       </c>
       <c r="I214" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="J214" s="4">
         <v>61.9</v>
@@ -9225,12 +9836,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:13">
       <c r="A215" s="1">
         <v>43154</v>
       </c>
       <c r="B215" s="2">
-        <v>2.4000000000000101</v>
+        <v>2.40000000000001</v>
       </c>
       <c r="C215" s="3">
         <v>13.4</v>
@@ -9266,7 +9877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:13">
       <c r="A216" s="1">
         <v>43161</v>
       </c>
@@ -9280,7 +9891,7 @@
         <v>81</v>
       </c>
       <c r="E216">
-        <v>1.9000000000000099</v>
+        <v>1.90000000000001</v>
       </c>
       <c r="F216">
         <v>7.9</v>
@@ -9307,21 +9918,21 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:13">
       <c r="A217" s="1">
         <v>43168</v>
       </c>
       <c r="B217" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="C217" s="3">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D217" s="4">
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="E217">
-        <v>4.1999999999999904</v>
+        <v>4.19999999999999</v>
       </c>
       <c r="F217">
         <v>11.7</v>
@@ -9348,7 +9959,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:13">
       <c r="A218" s="1">
         <v>43175</v>
       </c>
@@ -9362,10 +9973,10 @@
         <v>75</v>
       </c>
       <c r="E218">
-        <v>8.4000000000000092</v>
+        <v>8.40000000000001</v>
       </c>
       <c r="F218">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="G218">
         <v>132.5</v>
@@ -9389,7 +10000,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:13">
       <c r="A219" s="1">
         <v>43182</v>
       </c>
@@ -9403,7 +10014,7 @@
         <v>70</v>
       </c>
       <c r="E219">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F219">
         <v>10.7</v>
@@ -9430,7 +10041,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:13">
       <c r="A220" s="1">
         <v>43189</v>
       </c>
@@ -9438,10 +10049,10 @@
         <v>26</v>
       </c>
       <c r="C220" s="3">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="D220" s="4">
-        <v>76.900000000000006</v>
+        <v>76.9</v>
       </c>
       <c r="E220">
         <v>13</v>
@@ -9450,7 +10061,7 @@
         <v>6.8</v>
       </c>
       <c r="G220">
-        <v>138.19999999999999</v>
+        <v>138.2</v>
       </c>
       <c r="H220" s="2">
         <v>6.7</v>
@@ -9459,7 +10070,7 @@
         <v>10</v>
       </c>
       <c r="J220" s="4">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="K220">
         <v>4.3</v>
@@ -9471,7 +10082,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:13">
       <c r="A221" s="1">
         <v>43196</v>
       </c>
@@ -9509,10 +10120,10 @@
         <v>0.6</v>
       </c>
       <c r="M221">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="1">
         <v>43203</v>
       </c>
@@ -9520,13 +10131,13 @@
         <v>33.6</v>
       </c>
       <c r="C222" s="3">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="D222" s="4">
         <v>80</v>
       </c>
       <c r="E222">
-        <v>7.8000000000000096</v>
+        <v>7.80000000000001</v>
       </c>
       <c r="F222">
         <v>6.8</v>
@@ -9538,7 +10149,7 @@
         <v>3.5</v>
       </c>
       <c r="I222" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="J222" s="4">
         <v>31.2</v>
@@ -9553,7 +10164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:13">
       <c r="A223" s="1">
         <v>43210</v>
       </c>
@@ -9570,13 +10181,13 @@
         <v>12.2</v>
       </c>
       <c r="F223">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="G223">
         <v>137</v>
       </c>
       <c r="H223" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="I223" s="3">
         <v>2.9</v>
@@ -9585,16 +10196,16 @@
         <v>37</v>
       </c>
       <c r="K223">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L223">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="M223">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="1">
         <v>43217</v>
       </c>
@@ -9635,7 +10246,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:13">
       <c r="A225" s="1">
         <v>43224</v>
       </c>
@@ -9643,7 +10254,7 @@
         <v>25.3</v>
       </c>
       <c r="C225" s="3">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D225" s="4">
         <v>116</v>
@@ -9655,7 +10266,7 @@
         <v>11</v>
       </c>
       <c r="G225">
-        <v>153.80000000000001</v>
+        <v>153.8</v>
       </c>
       <c r="H225" s="2">
         <v>9</v>
@@ -9676,7 +10287,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:13">
       <c r="A226" s="1">
         <v>43231</v>
       </c>
@@ -9696,7 +10307,7 @@
         <v>13.6</v>
       </c>
       <c r="G226">
-        <v>160.80000000000001</v>
+        <v>160.8</v>
       </c>
       <c r="H226" s="2">
         <v>22.2</v>
@@ -9717,7 +10328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:13">
       <c r="A227" s="1">
         <v>43238</v>
       </c>
@@ -9758,12 +10369,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:13">
       <c r="A228" s="1">
         <v>43245</v>
       </c>
       <c r="B228" s="2">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="C228" s="3">
         <v>17.7</v>
@@ -9781,7 +10392,7 @@
         <v>168</v>
       </c>
       <c r="H228" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="I228" s="3">
         <v>5.8</v>
@@ -9799,12 +10410,12 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:13">
       <c r="A229" s="1">
         <v>43252</v>
       </c>
       <c r="B229" s="2">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="C229" s="3">
         <v>12.6</v>
@@ -9822,7 +10433,7 @@
         <v>176</v>
       </c>
       <c r="H229" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="I229" s="3">
         <v>7.6</v>
@@ -9837,10 +10448,10 @@
         <v>2</v>
       </c>
       <c r="M229">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="1">
         <v>43259</v>
       </c>
@@ -9863,7 +10474,7 @@
         <v>179.3</v>
       </c>
       <c r="H230" s="2">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="I230" s="3">
         <v>19.5</v>
@@ -9881,7 +10492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:13">
       <c r="A231" s="1">
         <v>43266</v>
       </c>
@@ -9922,7 +10533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:13">
       <c r="A232" s="1">
         <v>43273</v>
       </c>
@@ -9936,7 +10547,7 @@
         <v>126.9</v>
       </c>
       <c r="E232">
-        <v>8.1999999999999904</v>
+        <v>8.19999999999999</v>
       </c>
       <c r="F232">
         <v>11.7</v>
@@ -9963,7 +10574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:13">
       <c r="A233" s="1">
         <v>43280</v>
       </c>
@@ -9986,10 +10597,10 @@
         <v>174</v>
       </c>
       <c r="H233" s="2">
-        <v>5.1000000000000103</v>
+        <v>5.10000000000001</v>
       </c>
       <c r="I233" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J233" s="4">
         <v>63.2</v>
@@ -10004,7 +10615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:13">
       <c r="A234" s="1">
         <v>43287</v>
       </c>
@@ -10018,7 +10629,7 @@
         <v>138</v>
       </c>
       <c r="E234">
-        <v>8.6999999999999904</v>
+        <v>8.69999999999999</v>
       </c>
       <c r="F234">
         <v>16.7</v>
@@ -10033,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="J234" s="4">
-        <v>64.400000000000006</v>
+        <v>64.4</v>
       </c>
       <c r="K234">
         <v>2.6</v>
@@ -10045,7 +10656,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:13">
       <c r="A235" s="1">
         <v>43294</v>
       </c>
@@ -10059,16 +10670,16 @@
         <v>140.5</v>
       </c>
       <c r="E235">
-        <v>7.6000000000000201</v>
+        <v>7.60000000000002</v>
       </c>
       <c r="F235">
         <v>10.3</v>
       </c>
       <c r="G235">
-        <v>159.30000000000001</v>
+        <v>159.3</v>
       </c>
       <c r="H235" s="2">
-        <v>2.4799999999999902</v>
+        <v>2.47999999999999</v>
       </c>
       <c r="I235" s="3">
         <v>5.98</v>
@@ -10077,7 +10688,7 @@
         <v>60.9</v>
       </c>
       <c r="K235">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="L235">
         <v>5</v>
@@ -10086,7 +10697,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:13">
       <c r="A236" s="1">
         <v>43301</v>
       </c>
@@ -10097,7 +10708,7 @@
         <v>16.5</v>
       </c>
       <c r="D236" s="4">
-        <v>142.80000000000001</v>
+        <v>142.8</v>
       </c>
       <c r="E236">
         <v>23.5</v>
@@ -10127,7 +10738,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:13">
       <c r="A237" s="1">
         <v>43308</v>
       </c>
@@ -10138,7 +10749,7 @@
         <v>20.3</v>
       </c>
       <c r="D237" s="4">
-        <v>139.80000000000001</v>
+        <v>139.8</v>
       </c>
       <c r="E237">
         <v>14</v>
@@ -10147,7 +10758,7 @@
         <v>14.8</v>
       </c>
       <c r="G237">
-        <v>158.19999999999999</v>
+        <v>158.2</v>
       </c>
       <c r="H237" s="2">
         <v>6.2</v>
@@ -10168,18 +10779,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:13">
       <c r="A238" s="1">
         <v>43315</v>
       </c>
       <c r="B238" s="2">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="C238" s="3">
         <v>11.6</v>
       </c>
       <c r="D238" s="4">
-        <v>144.30000000000001</v>
+        <v>144.3</v>
       </c>
       <c r="E238">
         <v>14.6</v>
@@ -10209,7 +10820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:13">
       <c r="A239" s="1">
         <v>43322</v>
       </c>
@@ -10250,7 +10861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:13">
       <c r="A240" s="1">
         <v>43329</v>
       </c>
@@ -10261,10 +10872,10 @@
         <v>13.4</v>
       </c>
       <c r="D240" s="4">
-        <v>149.80000000000001</v>
+        <v>149.8</v>
       </c>
       <c r="E240">
-        <v>7.4000000000000101</v>
+        <v>7.40000000000001</v>
       </c>
       <c r="F240">
         <v>13.9</v>
@@ -10291,12 +10902,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:13">
       <c r="A241" s="1">
         <v>43336</v>
       </c>
       <c r="B241" s="2">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="C241" s="3">
         <v>21.4</v>
@@ -10305,16 +10916,16 @@
         <v>146.5</v>
       </c>
       <c r="E241">
-        <v>3.0999999999999899</v>
+        <v>3.09999999999999</v>
       </c>
       <c r="F241">
         <v>8.4</v>
       </c>
       <c r="G241">
-        <v>149.69999999999999</v>
+        <v>149.7</v>
       </c>
       <c r="H241" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="I241" s="3">
         <v>6.3</v>
@@ -10332,7 +10943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:13">
       <c r="A242" s="1">
         <v>43343</v>
       </c>
@@ -10343,7 +10954,7 @@
         <v>17.2</v>
       </c>
       <c r="D242" s="4">
-        <v>146.80000000000001</v>
+        <v>146.8</v>
       </c>
       <c r="E242">
         <v>4.5</v>
@@ -10373,7 +10984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:13">
       <c r="A243" s="1">
         <v>43350</v>
       </c>
@@ -10384,16 +10995,16 @@
         <v>14.7</v>
       </c>
       <c r="D243" s="4">
-        <v>149.30000000000001</v>
+        <v>149.3</v>
       </c>
       <c r="E243">
-        <v>9.8000000000000096</v>
+        <v>9.80000000000001</v>
       </c>
       <c r="F243">
         <v>17</v>
       </c>
       <c r="G243">
-        <v>132.80000000000001</v>
+        <v>132.8</v>
       </c>
       <c r="H243" s="2">
         <v>9.4</v>
@@ -10414,7 +11025,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:13">
       <c r="A244" s="1">
         <v>43357</v>
       </c>
@@ -10446,7 +11057,7 @@
         <v>53.5</v>
       </c>
       <c r="K244">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L244">
         <v>4.8</v>
@@ -10455,7 +11066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:13">
       <c r="A245" s="1">
         <v>43364</v>
       </c>
@@ -10496,7 +11107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:13">
       <c r="A246" s="1">
         <v>43371</v>
       </c>
@@ -10528,7 +11139,7 @@
         <v>52</v>
       </c>
       <c r="K246">
-        <v>0.30000000000000099</v>
+        <v>0.300000000000001</v>
       </c>
       <c r="L246">
         <v>1.3</v>
@@ -10537,7 +11148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:13">
       <c r="A247" s="1">
         <v>43378</v>
       </c>
@@ -10569,7 +11180,7 @@
         <v>55.6</v>
       </c>
       <c r="K247">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L247">
         <v>3.2</v>
@@ -10578,7 +11189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:13">
       <c r="A248" s="1">
         <v>43385</v>
       </c>
@@ -10589,7 +11200,7 @@
         <v>10.5</v>
       </c>
       <c r="D248" s="4">
-        <v>137.69999999999999</v>
+        <v>137.7</v>
       </c>
       <c r="E248">
         <v>10.9</v>
@@ -10610,7 +11221,7 @@
         <v>56.9</v>
       </c>
       <c r="K248">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="L248">
         <v>5.8</v>
@@ -10619,7 +11230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:13">
       <c r="A249" s="1">
         <v>43392</v>
       </c>
@@ -10633,7 +11244,7 @@
         <v>136.4</v>
       </c>
       <c r="E249">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="F249">
         <v>10</v>
@@ -10660,7 +11271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:13">
       <c r="A250" s="1">
         <v>43399</v>
       </c>
@@ -10671,13 +11282,13 @@
         <v>22.34</v>
       </c>
       <c r="D250" s="4">
-        <v>134.33000000000001</v>
+        <v>134.33</v>
       </c>
       <c r="E250">
         <v>22.6</v>
       </c>
       <c r="F250">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="G250">
         <v>119.7</v>
@@ -10701,7 +11312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:13">
       <c r="A251" s="1">
         <v>43406</v>
       </c>
@@ -10712,7 +11323,7 @@
         <v>33</v>
       </c>
       <c r="D251" s="4">
-        <v>128.47999999999999</v>
+        <v>128.48</v>
       </c>
       <c r="E251">
         <v>20</v>
@@ -10733,7 +11344,7 @@
         <v>55.3</v>
       </c>
       <c r="K251">
-        <v>0.30000000000000099</v>
+        <v>0.300000000000001</v>
       </c>
       <c r="L251">
         <v>0.3</v>
@@ -10742,7 +11353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:13">
       <c r="A252" s="1">
         <v>43413</v>
       </c>
@@ -10765,7 +11376,7 @@
         <v>116.2</v>
       </c>
       <c r="H252" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="I252" s="3">
         <v>17.5</v>
@@ -10783,7 +11394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:13">
       <c r="A253" s="1">
         <v>43420</v>
       </c>
@@ -10824,7 +11435,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:13">
       <c r="A254" s="1">
         <v>43427</v>
       </c>
@@ -10835,13 +11446,13 @@
         <v>24.14</v>
       </c>
       <c r="D254" s="4">
-        <v>133.22999999999999</v>
+        <v>133.23</v>
       </c>
       <c r="E254">
         <v>13.1</v>
       </c>
       <c r="F254">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="G254">
         <v>118</v>
@@ -10865,7 +11476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:13">
       <c r="A255" s="1">
         <v>43434</v>
       </c>
@@ -10876,7 +11487,7 @@
         <v>27.44</v>
       </c>
       <c r="D255" s="4">
-        <v>135.63999999999999</v>
+        <v>135.64</v>
       </c>
       <c r="E255">
         <v>12.5</v>
@@ -10888,7 +11499,7 @@
         <v>117.6</v>
       </c>
       <c r="H255" s="2">
-        <v>8.0999999999999908</v>
+        <v>8.09999999999999</v>
       </c>
       <c r="I255" s="3">
         <v>8.64</v>
@@ -10906,7 +11517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:13">
       <c r="A256" s="1">
         <v>43441</v>
       </c>
@@ -10917,7 +11528,7 @@
         <v>29.7</v>
       </c>
       <c r="D256" s="4">
-        <v>129.08000000000001</v>
+        <v>129.08</v>
       </c>
       <c r="E256">
         <v>23.7</v>
@@ -10947,7 +11558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:13">
       <c r="A257" s="1">
         <v>43448</v>
       </c>
@@ -10958,7 +11569,7 @@
         <v>34.1</v>
       </c>
       <c r="D257" s="4">
-        <v>129.80000000000001</v>
+        <v>129.8</v>
       </c>
       <c r="E257">
         <v>26.3</v>
@@ -10988,12 +11599,12 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:13">
       <c r="A258" s="1">
         <v>43455</v>
       </c>
       <c r="B258" s="2">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="C258" s="3">
         <v>28</v>
@@ -11029,7 +11640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:13">
       <c r="A259" s="1">
         <v>43462</v>
       </c>
@@ -11040,7 +11651,7 @@
         <v>36.5</v>
       </c>
       <c r="D259" s="4">
-        <v>133.69999999999999</v>
+        <v>133.7</v>
       </c>
       <c r="E259">
         <v>18</v>
@@ -11070,18 +11681,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:13">
       <c r="A260" s="1">
         <v>43469</v>
       </c>
       <c r="B260" s="2">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="C260" s="3">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="D260" s="4">
-        <v>138.69999999999999</v>
+        <v>138.7</v>
       </c>
       <c r="E260">
         <v>17.3</v>
@@ -11111,7 +11722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:13">
       <c r="A261" s="1">
         <v>43476</v>
       </c>
@@ -11119,10 +11730,10 @@
         <v>36.4</v>
       </c>
       <c r="C261" s="3">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="D261" s="4">
-        <v>141.30000000000001</v>
+        <v>141.3</v>
       </c>
       <c r="E261">
         <v>20</v>
@@ -11152,7 +11763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:13">
       <c r="A262" s="1">
         <v>43483</v>
       </c>
@@ -11163,7 +11774,7 @@
         <v>29.2</v>
       </c>
       <c r="D262" s="4">
-        <v>137.02000000000001</v>
+        <v>137.02</v>
       </c>
       <c r="E262">
         <v>26.6</v>
@@ -11193,7 +11804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:13">
       <c r="A263" s="1">
         <v>43490</v>
       </c>
@@ -11228,13 +11839,13 @@
         <v>5.4</v>
       </c>
       <c r="L263">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="M263">
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:13">
       <c r="A264" s="1">
         <v>43497</v>
       </c>
@@ -11275,7 +11886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:13">
       <c r="A265" s="1">
         <v>43504</v>
       </c>
@@ -11286,7 +11897,7 @@
         <v>11.1</v>
       </c>
       <c r="D265" s="4">
-        <v>135.80000000000001</v>
+        <v>135.8</v>
       </c>
       <c r="E265">
         <v>6</v>
@@ -11316,7 +11927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:13">
       <c r="A266" s="1">
         <v>43511</v>
       </c>
@@ -11327,7 +11938,7 @@
         <v>15.1</v>
       </c>
       <c r="D266" s="4">
-        <v>139.19999999999999</v>
+        <v>139.2</v>
       </c>
       <c r="E266">
         <v>22.7</v>
@@ -11342,7 +11953,7 @@
         <v>10.1</v>
       </c>
       <c r="I266" s="3">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="J266" s="4">
         <v>65.5</v>
@@ -11357,7 +11968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:13">
       <c r="A267" s="1">
         <v>43518</v>
       </c>
@@ -11374,7 +11985,7 @@
         <v>25.4</v>
       </c>
       <c r="F267">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="G267">
         <v>127</v>
@@ -11386,7 +11997,7 @@
         <v>6.3</v>
       </c>
       <c r="J267" s="4">
-        <v>66.400000000000006</v>
+        <v>66.4</v>
       </c>
       <c r="K267">
         <v>5</v>
@@ -11398,7 +12009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:13">
       <c r="A268" s="1">
         <v>43525</v>
       </c>
@@ -11406,7 +12017,7 @@
         <v>30.9</v>
       </c>
       <c r="C268" s="3">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="D268" s="4">
         <v>174.8</v>
@@ -11421,10 +12032,10 @@
         <v>135</v>
       </c>
       <c r="H268" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I268" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="J268" s="4">
         <v>66.7</v>
@@ -11439,7 +12050,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:13">
       <c r="A269" s="1">
         <v>43532</v>
       </c>
@@ -11453,7 +12064,7 @@
         <v>189.8</v>
       </c>
       <c r="E269">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="F269">
         <v>8</v>
@@ -11480,7 +12091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:13">
       <c r="A270" s="1">
         <v>43539</v>
       </c>
@@ -11521,7 +12132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:13">
       <c r="A271" s="1">
         <v>43546</v>
       </c>
@@ -11529,7 +12140,7 @@
         <v>21.5</v>
       </c>
       <c r="C271" s="3">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="D271" s="4">
         <v>211.6</v>
@@ -11562,7 +12173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:13">
       <c r="A272" s="1">
         <v>43553</v>
       </c>
@@ -11579,7 +12190,7 @@
         <v>22.4</v>
       </c>
       <c r="F272">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="G272">
         <v>173</v>
@@ -11603,7 +12214,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:13">
       <c r="A273" s="1">
         <v>43560</v>
       </c>
@@ -11638,13 +12249,13 @@
         <v>3.1</v>
       </c>
       <c r="L273">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="M273">
         <v>22.6</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:13">
       <c r="A274" s="1">
         <v>43567</v>
       </c>
@@ -11667,7 +12278,7 @@
         <v>170</v>
       </c>
       <c r="H274" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="I274" s="3">
         <v>4.2</v>
@@ -11685,7 +12296,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:13">
       <c r="A275" s="1">
         <v>43574</v>
       </c>
@@ -11697,7 +12308,7 @@
       </c>
       <c r="D275" s="4">
         <f>D274+B275-C275</f>
-        <v>220.10000000000002</v>
+        <v>220.1</v>
       </c>
       <c r="E275">
         <v>14.6</v>
@@ -11728,7 +12339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:13">
       <c r="A276" s="1">
         <v>43581</v>
       </c>
@@ -11739,7 +12350,7 @@
         <v>15.3</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" ref="D276:D277" si="0">D275+B276-C276</f>
+        <f t="shared" ref="D276:D279" si="0">D275+B276-C276</f>
         <v>218.5</v>
       </c>
       <c r="E276">
@@ -11752,14 +12363,14 @@
         <v>184</v>
       </c>
       <c r="H276" s="2">
-        <v>2.3999999999999901</v>
+        <v>2.39999999999999</v>
       </c>
       <c r="I276" s="3">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="J276" s="4">
-        <f t="shared" ref="J276:J277" si="1">J275+H276-I276</f>
-        <v>60.099999999999994</v>
+        <f t="shared" ref="J276:J279" si="1">J275+H276-I276</f>
+        <v>60.1</v>
       </c>
       <c r="K276">
         <v>2.5</v>
@@ -11771,12 +12382,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:13">
       <c r="A277" s="1">
         <v>43588</v>
       </c>
       <c r="B277" s="2">
-        <v>6.4000000000000101</v>
+        <v>6.40000000000001</v>
       </c>
       <c r="C277" s="3">
         <v>7.4</v>
@@ -11795,7 +12406,7 @@
         <v>182</v>
       </c>
       <c r="H277" s="2">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I277" s="3">
         <v>10.3</v>
@@ -11805,7 +12416,7 @@
         <v>60</v>
       </c>
       <c r="K277">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="L277">
         <v>0.4</v>
@@ -11814,7 +12425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:13">
       <c r="A278" s="1">
         <v>43595</v>
       </c>
@@ -11825,7 +12436,7 @@
         <v>22.6</v>
       </c>
       <c r="D278" s="4">
-        <f>D277+B278-C278</f>
+        <f t="shared" si="0"/>
         <v>211.6</v>
       </c>
       <c r="E278">
@@ -11845,11 +12456,11 @@
         <v>0.2</v>
       </c>
       <c r="J278" s="4">
-        <f>J277+H278-I278</f>
+        <f t="shared" si="1"/>
         <v>61.8</v>
       </c>
       <c r="K278">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="L278">
         <v>4.3</v>
@@ -11859,7 +12470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:13">
       <c r="A279" s="1">
         <v>43602</v>
       </c>
@@ -11870,7 +12481,7 @@
         <v>25.8</v>
       </c>
       <c r="D279" s="4">
-        <f>D278+B279-C279</f>
+        <f t="shared" si="0"/>
         <v>202.6</v>
       </c>
       <c r="E279">
@@ -11890,8 +12501,8 @@
         <v>6.8</v>
       </c>
       <c r="J279" s="4">
-        <f>J278+H279-I279</f>
-        <v>58.599999999999994</v>
+        <f t="shared" si="1"/>
+        <v>58.6</v>
       </c>
       <c r="K279">
         <v>3.2</v>
@@ -11904,9 +12515,54 @@
         <v>22</v>
       </c>
     </row>
+    <row r="280" spans="1:13">
+      <c r="A280" s="1">
+        <v>43609</v>
+      </c>
+      <c r="B280" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="C280" s="3">
+        <v>16.6</v>
+      </c>
+      <c r="D280" s="4">
+        <f>D279+B280-C280</f>
+        <v>195.1</v>
+      </c>
+      <c r="E280">
+        <v>10</v>
+      </c>
+      <c r="F280">
+        <v>19</v>
+      </c>
+      <c r="G280">
+        <f>G279+E280-F280</f>
+        <v>174.7</v>
+      </c>
+      <c r="H280" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I280" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J280" s="4">
+        <f>J279+H280-I280</f>
+        <v>60.5</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>4.5</v>
+      </c>
+      <c r="M280">
+        <f>M279+K280-L280</f>
+        <v>17.5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/NorthPort.xlsx
+++ b/database/NorthPort.xlsx
@@ -62,21 +62,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -92,11 +77,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,9 +93,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,46 +125,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +151,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -200,7 +176,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,31 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,54 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,6 +305,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,6 +354,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,41 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +478,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,16 +514,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,14 +1061,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F284" sqref="F284"/>
+      <selection pane="bottomRight" activeCell="M286" sqref="M286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12350,7 +12350,7 @@
         <v>15.3</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" ref="D276:D279" si="0">D275+B276-C276</f>
+        <f t="shared" ref="D276:D280" si="0">D275+B276-C276</f>
         <v>218.5</v>
       </c>
       <c r="E276">
@@ -12369,7 +12369,7 @@
         <v>9.8</v>
       </c>
       <c r="J276" s="4">
-        <f t="shared" ref="J276:J279" si="1">J275+H276-I276</f>
+        <f t="shared" ref="J276:J280" si="1">J275+H276-I276</f>
         <v>60.1</v>
       </c>
       <c r="K276">
@@ -12526,7 +12526,7 @@
         <v>16.6</v>
       </c>
       <c r="D280" s="4">
-        <f>D279+B280-C280</f>
+        <f t="shared" si="0"/>
         <v>195.1</v>
       </c>
       <c r="E280">
@@ -12546,7 +12546,7 @@
         <v>3.5</v>
       </c>
       <c r="J280" s="4">
-        <f>J279+H280-I280</f>
+        <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
       <c r="K280">
@@ -12558,6 +12558,51 @@
       <c r="M280">
         <f>M279+K280-L280</f>
         <v>17.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="A281" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B281" s="2">
+        <v>16.6</v>
+      </c>
+      <c r="C281" s="3">
+        <v>21.3</v>
+      </c>
+      <c r="D281" s="4">
+        <f>D280+B281-C281</f>
+        <v>190.4</v>
+      </c>
+      <c r="E281">
+        <v>7</v>
+      </c>
+      <c r="F281">
+        <v>22</v>
+      </c>
+      <c r="G281">
+        <f>G280+E281-F281</f>
+        <v>159.7</v>
+      </c>
+      <c r="H281" s="2">
+        <v>8</v>
+      </c>
+      <c r="I281" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J281" s="4">
+        <f>J280+H281-I281</f>
+        <v>56.3</v>
+      </c>
+      <c r="K281">
+        <v>4.5</v>
+      </c>
+      <c r="L281">
+        <v>2</v>
+      </c>
+      <c r="M281">
+        <f>M280+K281-L281</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/database/NorthPort.xlsx
+++ b/database/NorthPort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,26 +62,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,31 +77,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,23 +93,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,11 +145,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,6 +191,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,13 +215,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,31 +251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,31 +269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +293,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +323,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,24 +383,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,24 +390,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -482,15 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,6 +484,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,14 +1061,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M281"/>
+  <dimension ref="A1:M300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M286" sqref="M286"/>
+      <selection pane="bottomRight" activeCell="P295" sqref="P295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12350,7 +12350,7 @@
         <v>15.3</v>
       </c>
       <c r="D276" s="4">
-        <f t="shared" ref="D276:D280" si="0">D275+B276-C276</f>
+        <f t="shared" ref="D276:D297" si="0">D275+B276-C276</f>
         <v>218.5</v>
       </c>
       <c r="E276">
@@ -12369,7 +12369,7 @@
         <v>9.8</v>
       </c>
       <c r="J276" s="4">
-        <f t="shared" ref="J276:J280" si="1">J275+H276-I276</f>
+        <f t="shared" ref="J276:J297" si="1">J275+H276-I276</f>
         <v>60.1</v>
       </c>
       <c r="K276">
@@ -12446,7 +12446,7 @@
         <v>23</v>
       </c>
       <c r="G278">
-        <f>G277+E278-F278</f>
+        <f t="shared" ref="G278:G297" si="2">G277+E278-F278</f>
         <v>182</v>
       </c>
       <c r="H278" s="2">
@@ -12466,7 +12466,7 @@
         <v>4.3</v>
       </c>
       <c r="M278">
-        <f>M277+K278-L278</f>
+        <f t="shared" ref="M278:M297" si="3">M277+K278-L278</f>
         <v>20</v>
       </c>
     </row>
@@ -12491,7 +12491,7 @@
         <v>16.3</v>
       </c>
       <c r="G279">
-        <f>G278+E279-F279</f>
+        <f t="shared" si="2"/>
         <v>183.7</v>
       </c>
       <c r="H279" s="2">
@@ -12511,7 +12511,7 @@
         <v>1.2</v>
       </c>
       <c r="M279">
-        <f>M278+K279-L279</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
         <v>19</v>
       </c>
       <c r="G280">
-        <f>G279+E280-F280</f>
+        <f t="shared" si="2"/>
         <v>174.7</v>
       </c>
       <c r="H280" s="2">
@@ -12556,7 +12556,7 @@
         <v>4.5</v>
       </c>
       <c r="M280">
-        <f>M279+K280-L280</f>
+        <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
         <v>21.3</v>
       </c>
       <c r="D281" s="4">
-        <f>D280+B281-C281</f>
+        <f t="shared" si="0"/>
         <v>190.4</v>
       </c>
       <c r="E281">
@@ -12581,7 +12581,7 @@
         <v>22</v>
       </c>
       <c r="G281">
-        <f>G280+E281-F281</f>
+        <f t="shared" si="2"/>
         <v>159.7</v>
       </c>
       <c r="H281" s="2">
@@ -12591,7 +12591,7 @@
         <v>12.2</v>
       </c>
       <c r="J281" s="4">
-        <f>J280+H281-I281</f>
+        <f t="shared" si="1"/>
         <v>56.3</v>
       </c>
       <c r="K281">
@@ -12601,8 +12601,859 @@
         <v>2</v>
       </c>
       <c r="M281">
-        <f>M280+K281-L281</f>
+        <f t="shared" si="3"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
+      <c r="A282" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B282" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="C282" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="D282" s="4">
+        <f t="shared" si="0"/>
+        <v>183.3</v>
+      </c>
+      <c r="E282">
+        <v>4.5</v>
+      </c>
+      <c r="F282">
+        <v>14</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="2"/>
+        <v>150.2</v>
+      </c>
+      <c r="H282" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="I282" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="J282" s="4">
+        <f t="shared" si="1"/>
+        <v>52.1</v>
+      </c>
+      <c r="K282">
+        <v>2.7</v>
+      </c>
+      <c r="L282">
+        <v>0.7</v>
+      </c>
+      <c r="M282">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B283" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C283" s="3">
+        <v>11</v>
+      </c>
+      <c r="D283" s="4">
+        <f t="shared" si="0"/>
+        <v>175.9</v>
+      </c>
+      <c r="E283">
+        <v>2.5</v>
+      </c>
+      <c r="F283">
+        <v>5</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="2"/>
+        <v>147.7</v>
+      </c>
+      <c r="H283" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I283" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J283" s="4">
+        <f t="shared" si="1"/>
+        <v>54.1</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B284" s="2">
+        <v>3</v>
+      </c>
+      <c r="C284" s="3">
+        <v>15</v>
+      </c>
+      <c r="D284" s="4">
+        <f t="shared" si="0"/>
+        <v>163.9</v>
+      </c>
+      <c r="E284">
+        <v>3</v>
+      </c>
+      <c r="F284">
+        <v>8</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="2"/>
+        <v>142.7</v>
+      </c>
+      <c r="H284" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="I284" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J284" s="4">
+        <f t="shared" si="1"/>
+        <v>57.1</v>
+      </c>
+      <c r="K284">
+        <v>14.6</v>
+      </c>
+      <c r="L284">
+        <v>8</v>
+      </c>
+      <c r="M284">
+        <f t="shared" si="3"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B285" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C285" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="D285" s="4">
+        <f t="shared" si="0"/>
+        <v>156.7</v>
+      </c>
+      <c r="E285">
+        <v>2.8</v>
+      </c>
+      <c r="F285">
+        <v>5</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="2"/>
+        <v>140.5</v>
+      </c>
+      <c r="H285" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I285" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="J285" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>3.6</v>
+      </c>
+      <c r="M285">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="A286" s="1">
+        <v>43651</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2</v>
+      </c>
+      <c r="C286" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="D286" s="4">
+        <f t="shared" si="0"/>
+        <v>156.6</v>
+      </c>
+      <c r="E286">
+        <v>3.2</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="2"/>
+        <v>132.7</v>
+      </c>
+      <c r="H286" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I286" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J286" s="4">
+        <f t="shared" si="1"/>
+        <v>56.6</v>
+      </c>
+      <c r="K286">
+        <v>1.8</v>
+      </c>
+      <c r="L286">
+        <v>0.8</v>
+      </c>
+      <c r="M286">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="1">
+        <v>43658</v>
+      </c>
+      <c r="B287" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="C287" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="D287" s="4">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="E287">
+        <v>5</v>
+      </c>
+      <c r="F287">
+        <v>9</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="2"/>
+        <v>128.7</v>
+      </c>
+      <c r="H287" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I287" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="J287" s="4">
+        <f t="shared" si="1"/>
+        <v>59.6</v>
+      </c>
+      <c r="K287">
+        <v>1.1</v>
+      </c>
+      <c r="L287">
+        <v>0.9</v>
+      </c>
+      <c r="M287">
+        <f t="shared" si="3"/>
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="1">
+        <v>43665</v>
+      </c>
+      <c r="B288" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="C288" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="D288" s="4">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E288">
+        <v>3</v>
+      </c>
+      <c r="F288">
+        <v>7</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="2"/>
+        <v>124.7</v>
+      </c>
+      <c r="H288" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I288" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J288" s="4">
+        <f t="shared" si="1"/>
+        <v>56.1</v>
+      </c>
+      <c r="K288">
+        <v>3</v>
+      </c>
+      <c r="L288">
+        <v>2.2</v>
+      </c>
+      <c r="M288">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B289" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C289" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D289" s="4">
+        <f t="shared" si="0"/>
+        <v>130.9</v>
+      </c>
+      <c r="E289">
+        <v>2.6</v>
+      </c>
+      <c r="F289">
+        <v>8</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="2"/>
+        <v>119.3</v>
+      </c>
+      <c r="H289" s="2">
+        <v>2</v>
+      </c>
+      <c r="I289" s="3">
+        <v>6</v>
+      </c>
+      <c r="J289" s="4">
+        <f t="shared" si="1"/>
+        <v>52.1</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="A290" s="1">
+        <v>43679</v>
+      </c>
+      <c r="B290" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="C290" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="D290" s="4">
+        <f t="shared" si="0"/>
+        <v>120.5</v>
+      </c>
+      <c r="E290">
+        <v>4.3</v>
+      </c>
+      <c r="F290">
+        <v>6.5</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="2"/>
+        <v>117.1</v>
+      </c>
+      <c r="H290" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="I290" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J290" s="4">
+        <f t="shared" si="1"/>
+        <v>53.9</v>
+      </c>
+      <c r="K290">
+        <v>2</v>
+      </c>
+      <c r="L290">
+        <v>2.5</v>
+      </c>
+      <c r="M290">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="A291" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C291" s="3">
+        <v>9.7</v>
+      </c>
+      <c r="D291" s="4">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="E291">
+        <v>2.1</v>
+      </c>
+      <c r="F291">
+        <v>6.3</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="2"/>
+        <v>112.9</v>
+      </c>
+      <c r="H291" s="2">
+        <v>0</v>
+      </c>
+      <c r="I291" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J291" s="4">
+        <f t="shared" si="1"/>
+        <v>51.4</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>3.5</v>
+      </c>
+      <c r="M291">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B292" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="C292" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="D292" s="4">
+        <f t="shared" si="0"/>
+        <v>90.2</v>
+      </c>
+      <c r="E292">
+        <v>4.9</v>
+      </c>
+      <c r="F292">
+        <v>12.2</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="2"/>
+        <v>105.6</v>
+      </c>
+      <c r="H292" s="2">
+        <v>0</v>
+      </c>
+      <c r="I292" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="J292" s="4">
+        <f t="shared" si="1"/>
+        <v>47.7</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>8</v>
+      </c>
+      <c r="M292">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1">
+        <v>43700</v>
+      </c>
+      <c r="B293" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="C293" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D293" s="4">
+        <f t="shared" si="0"/>
+        <v>85.9</v>
+      </c>
+      <c r="E293">
+        <v>4.4</v>
+      </c>
+      <c r="F293">
+        <v>13.8</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="2"/>
+        <v>96.2</v>
+      </c>
+      <c r="H293" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I293" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="J293" s="4">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="A294" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B294" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="C294" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="D294" s="4">
+        <f t="shared" si="0"/>
+        <v>71.6</v>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+      <c r="F294">
+        <v>6</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="2"/>
+        <v>94.2</v>
+      </c>
+      <c r="H294" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="I294" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="J294" s="4">
+        <f t="shared" si="1"/>
+        <v>40.6</v>
+      </c>
+      <c r="K294">
+        <v>2.6</v>
+      </c>
+      <c r="L294">
+        <v>1.6</v>
+      </c>
+      <c r="M294">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="A295" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B295" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="C295" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="D295" s="4">
+        <f t="shared" si="0"/>
+        <v>74.7</v>
+      </c>
+      <c r="E295">
+        <v>4.8</v>
+      </c>
+      <c r="F295">
+        <v>13</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="H295" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I295" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="J295" s="4">
+        <f t="shared" si="1"/>
+        <v>37.9</v>
+      </c>
+      <c r="K295">
+        <v>8.7</v>
+      </c>
+      <c r="L295">
+        <v>10.2</v>
+      </c>
+      <c r="M295">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="A296" s="1">
+        <v>43721</v>
+      </c>
+      <c r="B296" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="C296" s="3">
+        <v>26.4</v>
+      </c>
+      <c r="D296" s="4">
+        <f t="shared" si="0"/>
+        <v>61.6</v>
+      </c>
+      <c r="E296">
+        <v>4.7</v>
+      </c>
+      <c r="F296">
+        <v>9</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="2"/>
+        <v>81.7</v>
+      </c>
+      <c r="H296" s="2">
+        <v>1</v>
+      </c>
+      <c r="I296" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J296" s="4">
+        <f t="shared" si="1"/>
+        <v>26.6</v>
+      </c>
+      <c r="K296">
+        <v>2.1</v>
+      </c>
+      <c r="L296">
+        <v>4.6</v>
+      </c>
+      <c r="M296">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B297" s="2">
+        <v>10</v>
+      </c>
+      <c r="C297" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="D297" s="4">
+        <f t="shared" si="0"/>
+        <v>60.8</v>
+      </c>
+      <c r="E297">
+        <v>3.6</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="2"/>
+        <v>77.3</v>
+      </c>
+      <c r="H297" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="I297" s="3">
+        <v>16.6</v>
+      </c>
+      <c r="J297" s="4">
+        <f t="shared" si="1"/>
+        <v>21.7</v>
+      </c>
+      <c r="K297">
+        <v>0.7</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="A298" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B298" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="C298" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="D298" s="4">
+        <v>58.9</v>
+      </c>
+      <c r="E298">
+        <v>1.5</v>
+      </c>
+      <c r="F298">
+        <v>10</v>
+      </c>
+      <c r="G298">
+        <v>60.5</v>
+      </c>
+      <c r="H298" s="2">
+        <v>5</v>
+      </c>
+      <c r="I298" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J298" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="A299" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B299" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="C299" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="D299" s="4">
+        <f>D298+B299-C299</f>
+        <v>61.5</v>
+      </c>
+      <c r="E299">
+        <v>2.6</v>
+      </c>
+      <c r="F299">
+        <v>1.8</v>
+      </c>
+      <c r="G299">
+        <f>G298+E299-F299</f>
+        <v>61.3</v>
+      </c>
+      <c r="H299" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="I299" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="J299" s="4">
+        <f>J298+H299-I299</f>
+        <v>19.3</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <f>M298+K299-L299</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="A300" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B300" s="2">
+        <v>6</v>
+      </c>
+      <c r="C300" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D300" s="4">
+        <f>D299+B300-C300</f>
+        <v>61.2</v>
+      </c>
+      <c r="E300">
+        <v>4.6</v>
+      </c>
+      <c r="F300">
+        <v>2.1</v>
+      </c>
+      <c r="G300">
+        <f>G299+E300-F300</f>
+        <v>63.8</v>
+      </c>
+      <c r="H300" s="2">
+        <v>1</v>
+      </c>
+      <c r="I300" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J300" s="4">
+        <f>J299+H300-I300</f>
+        <v>18.7</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <f>M299+K300-L300</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/database/NorthPort.xlsx
+++ b/database/NorthPort.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,24 +69,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,11 +83,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,8 +105,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,25 +169,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,15 +186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,19 +215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,19 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +251,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,79 +287,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,19 +323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +354,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,11 +491,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,23 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,13 +541,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,37 +573,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,94 +606,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,14 +1061,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P295" sqref="P295"/>
+      <selection pane="bottomRight" activeCell="O303" sqref="O303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13456,6 +13456,97 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="301" spans="1:13">
+      <c r="A301" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B301" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C301" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="D301" s="4">
+        <f>D300+B301-C301</f>
+        <v>54.9</v>
+      </c>
+      <c r="E301">
+        <v>4.8</v>
+      </c>
+      <c r="F301">
+        <v>5.3</v>
+      </c>
+      <c r="G301">
+        <f>G300+E301-F301</f>
+        <v>63.3</v>
+      </c>
+      <c r="H301" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I301" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="J301" s="4">
+        <f>J300+H301-I301</f>
+        <v>19.9</v>
+      </c>
+      <c r="K301">
+        <v>2.6</v>
+      </c>
+      <c r="L301">
+        <v>5.5</v>
+      </c>
+      <c r="M301">
+        <f>M300+K301-L301</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="A302" s="1">
+        <f>A301+7</f>
+        <v>43770</v>
+      </c>
+      <c r="B302" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="C302" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="D302" s="4">
+        <f>D301+B302-C302</f>
+        <v>46.2</v>
+      </c>
+      <c r="E302">
+        <v>14.2</v>
+      </c>
+      <c r="F302">
+        <v>14</v>
+      </c>
+      <c r="G302">
+        <f>G301+E302-F302</f>
+        <v>63.5</v>
+      </c>
+      <c r="H302" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I302" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="J302" s="4">
+        <f>J301+H302-I302</f>
+        <v>17.9</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <f>M301+K302-L302</f>
+        <v>1.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/NorthPort.xlsx
+++ b/database/NorthPort.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -46,14 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,345 +61,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -457,253 +133,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -713,62 +147,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -817,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,23 +446,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O303" sqref="O303"/>
+      <selection pane="bottomRight" activeCell="L313" sqref="L313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1082,7 +472,7 @@
     <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>41642</v>
       </c>
@@ -1185,7 +575,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>41649</v>
       </c>
@@ -1226,7 +616,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>41656</v>
       </c>
@@ -1264,10 +654,10 @@
         <v>6.3</v>
       </c>
       <c r="M5">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>41663</v>
       </c>
@@ -1308,7 +698,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>41680</v>
       </c>
@@ -1349,7 +739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>41684</v>
       </c>
@@ -1390,7 +780,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>41691</v>
       </c>
@@ -1422,7 +812,7 @@
         <v>67.3</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L9">
         <v>2.5</v>
@@ -1431,7 +821,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>41698</v>
       </c>
@@ -1472,7 +862,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>41705</v>
       </c>
@@ -1513,7 +903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>41712</v>
       </c>
@@ -1554,7 +944,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>41719</v>
       </c>
@@ -1577,13 +967,13 @@
         <v>116</v>
       </c>
       <c r="H13" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I13" s="3">
         <v>4.3</v>
       </c>
       <c r="J13" s="4">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1595,7 +985,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>41726</v>
       </c>
@@ -1624,19 +1014,19 @@
         <v>3</v>
       </c>
       <c r="J14" s="4">
-        <v>70.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="K14">
         <v>1.6</v>
       </c>
       <c r="L14">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M14">
         <v>33.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>41733</v>
       </c>
@@ -1650,7 +1040,7 @@
         <v>127</v>
       </c>
       <c r="E15">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F15">
         <v>9.6</v>
@@ -1677,7 +1067,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>41740</v>
       </c>
@@ -1706,7 +1096,7 @@
         <v>7.4</v>
       </c>
       <c r="J16" s="4">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -1718,7 +1108,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>41747</v>
       </c>
@@ -1759,7 +1149,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>41754</v>
       </c>
@@ -1800,7 +1190,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>41761</v>
       </c>
@@ -1832,7 +1222,7 @@
         <v>42.5</v>
       </c>
       <c r="K19">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -1841,7 +1231,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>41768</v>
       </c>
@@ -1882,7 +1272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>41775</v>
       </c>
@@ -1923,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>41782</v>
       </c>
@@ -1964,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>41789</v>
       </c>
@@ -2002,10 +1392,10 @@
         <v>1.6</v>
       </c>
       <c r="M23">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>41796</v>
       </c>
@@ -2046,7 +1436,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>41803</v>
       </c>
@@ -2087,7 +1477,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>41810</v>
       </c>
@@ -2128,7 +1518,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>41816</v>
       </c>
@@ -2169,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>41823</v>
       </c>
@@ -2207,10 +1597,10 @@
         <v>0.6</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>41831</v>
       </c>
@@ -2227,7 +1617,7 @@
         <v>8.9</v>
       </c>
       <c r="F29">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G29">
         <v>89.7</v>
@@ -2251,7 +1641,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>41838</v>
       </c>
@@ -2292,7 +1682,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>41845</v>
       </c>
@@ -2312,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H31" s="2">
         <v>6.5</v>
@@ -2333,7 +1723,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>41852</v>
       </c>
@@ -2350,7 +1740,7 @@
         <v>13.3</v>
       </c>
       <c r="F32">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G32">
         <v>74</v>
@@ -2374,7 +1764,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>41859</v>
       </c>
@@ -2415,7 +1805,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>41866</v>
       </c>
@@ -2456,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>41873</v>
       </c>
@@ -2497,7 +1887,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>41880</v>
       </c>
@@ -2520,13 +1910,13 @@
         <v>69</v>
       </c>
       <c r="H36" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I36" s="3">
         <v>8.1</v>
       </c>
       <c r="J36" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K36">
         <v>2.5</v>
@@ -2538,7 +1928,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>41887</v>
       </c>
@@ -2555,7 +1945,7 @@
         <v>10.8</v>
       </c>
       <c r="F37">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G37">
         <v>70</v>
@@ -2567,19 +1957,19 @@
         <v>7.6</v>
       </c>
       <c r="J37" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K37">
         <v>2.1</v>
       </c>
       <c r="L37">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M37">
         <v>5.2</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>41894</v>
       </c>
@@ -2620,7 +2010,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>41901</v>
       </c>
@@ -2652,16 +2042,16 @@
         <v>25.7</v>
       </c>
       <c r="K39">
-        <v>0.799999999999999</v>
+        <v>0.79999999999999905</v>
       </c>
       <c r="L39">
         <v>2.4</v>
       </c>
       <c r="M39">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>41908</v>
       </c>
@@ -2693,16 +2083,16 @@
         <v>29.7</v>
       </c>
       <c r="K40">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L40">
         <v>0.6</v>
       </c>
       <c r="M40">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>41915</v>
       </c>
@@ -2743,7 +2133,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41922</v>
       </c>
@@ -2769,7 +2159,7 @@
         <v>3.5</v>
       </c>
       <c r="I42" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J42" s="4">
         <v>23.7</v>
@@ -2784,7 +2174,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41929</v>
       </c>
@@ -2825,7 +2215,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41936</v>
       </c>
@@ -2866,7 +2256,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>41943</v>
       </c>
@@ -2883,7 +2273,7 @@
         <v>22.3</v>
       </c>
       <c r="F45">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G45">
         <v>92</v>
@@ -2907,7 +2297,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>41950</v>
       </c>
@@ -2921,7 +2311,7 @@
         <v>116</v>
       </c>
       <c r="E46">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F46">
         <v>16.3</v>
@@ -2948,7 +2338,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>41957</v>
       </c>
@@ -2989,7 +2379,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>41964</v>
       </c>
@@ -3030,7 +2420,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>41971</v>
       </c>
@@ -3050,7 +2440,7 @@
         <v>23.5</v>
       </c>
       <c r="G49">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="H49" s="2">
         <v>6.4</v>
@@ -3071,7 +2461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>41978</v>
       </c>
@@ -3112,18 +2502,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>41985</v>
       </c>
       <c r="B51" s="2">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C51" s="3">
         <v>30</v>
       </c>
       <c r="D51" s="4">
-        <v>135.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="E51">
         <v>23.4</v>
@@ -3141,7 +2531,7 @@
         <v>8.4</v>
       </c>
       <c r="J51" s="4">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -3153,7 +2543,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>41992</v>
       </c>
@@ -3194,7 +2584,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>41999</v>
       </c>
@@ -3232,10 +2622,10 @@
         <v>1.5</v>
       </c>
       <c r="M53">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>42006</v>
       </c>
@@ -3246,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -3255,10 +2645,10 @@
         <v>13</v>
       </c>
       <c r="G54">
-        <v>142.3</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="H54" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I54" s="3">
         <v>3.3</v>
@@ -3276,7 +2666,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42013</v>
       </c>
@@ -3302,7 +2692,7 @@
         <v>3.7</v>
       </c>
       <c r="I55" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J55" s="4">
         <v>66</v>
@@ -3317,7 +2707,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42020</v>
       </c>
@@ -3337,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="G56">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="H56" s="2">
         <v>3.3</v>
@@ -3358,7 +2748,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42027</v>
       </c>
@@ -3384,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J57" s="4">
         <v>52.3</v>
@@ -3399,7 +2789,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42034</v>
       </c>
@@ -3440,7 +2830,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42041</v>
       </c>
@@ -3481,7 +2871,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42048</v>
       </c>
@@ -3510,7 +2900,7 @@
         <v>2.4</v>
       </c>
       <c r="J60" s="4">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3522,7 +2912,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42055</v>
       </c>
@@ -3542,7 +2932,7 @@
         <v>0.5</v>
       </c>
       <c r="G61">
-        <v>144.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="H61" s="2">
         <v>3.3</v>
@@ -3551,7 +2941,7 @@
         <v>3.2</v>
       </c>
       <c r="J61" s="4">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3563,7 +2953,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42061</v>
       </c>
@@ -3571,7 +2961,7 @@
         <v>0.6</v>
       </c>
       <c r="C62" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D62" s="4">
         <v>143</v>
@@ -3604,7 +2994,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>42069</v>
       </c>
@@ -3615,7 +3005,7 @@
         <v>13.4</v>
       </c>
       <c r="D63" s="4">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -3645,7 +3035,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42076</v>
       </c>
@@ -3656,7 +3046,7 @@
         <v>15</v>
       </c>
       <c r="D64" s="4">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="E64">
         <v>16.5</v>
@@ -3686,7 +3076,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42083</v>
       </c>
@@ -3727,7 +3117,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42090</v>
       </c>
@@ -3768,7 +3158,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42097</v>
       </c>
@@ -3809,7 +3199,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42104</v>
       </c>
@@ -3850,7 +3240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42111</v>
       </c>
@@ -3891,7 +3281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42118</v>
       </c>
@@ -3908,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G70">
         <v>193</v>
@@ -3932,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42125</v>
       </c>
@@ -3973,7 +3363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42132</v>
       </c>
@@ -3984,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="4">
-        <v>138.2</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="E72">
         <v>3.6</v>
@@ -3999,7 +3389,7 @@
         <v>2.9</v>
       </c>
       <c r="I72" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J72" s="4">
         <v>51.3</v>
@@ -4014,7 +3404,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42139</v>
       </c>
@@ -4055,7 +3445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42144</v>
       </c>
@@ -4090,13 +3480,13 @@
         <v>1.57</v>
       </c>
       <c r="L74">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M74">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42153</v>
       </c>
@@ -4113,7 +3503,7 @@
         <v>6.3</v>
       </c>
       <c r="F75">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G75">
         <v>191.7</v>
@@ -4137,7 +3527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42163</v>
       </c>
@@ -4178,7 +3568,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>42167</v>
       </c>
@@ -4219,7 +3609,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42174</v>
       </c>
@@ -4260,7 +3650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42181</v>
       </c>
@@ -4301,7 +3691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>42188</v>
       </c>
@@ -4342,7 +3732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42195</v>
       </c>
@@ -4383,7 +3773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>42202</v>
       </c>
@@ -4424,7 +3814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42209</v>
       </c>
@@ -4465,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>42216</v>
       </c>
@@ -4500,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M84">
         <v>5.9</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42223</v>
       </c>
@@ -4532,7 +3922,7 @@
         <v>13.8</v>
       </c>
       <c r="I85" s="3">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="J85" s="4">
         <v>47.6</v>
@@ -4544,10 +3934,10 @@
         <v>0.9</v>
       </c>
       <c r="M85">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42230</v>
       </c>
@@ -4564,7 +3954,7 @@
         <v>1.8</v>
       </c>
       <c r="F86">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G86">
         <v>120.1</v>
@@ -4588,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>42237</v>
       </c>
@@ -4629,7 +4019,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>42244</v>
       </c>
@@ -4670,7 +4060,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42253</v>
       </c>
@@ -4687,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G89">
         <v>108.4</v>
@@ -4711,7 +4101,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42258</v>
       </c>
@@ -4752,7 +4142,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>42265</v>
       </c>
@@ -4793,7 +4183,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42272</v>
       </c>
@@ -4834,7 +4224,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>42279</v>
       </c>
@@ -4875,7 +4265,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42286</v>
       </c>
@@ -4916,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42293</v>
       </c>
@@ -4957,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42300</v>
       </c>
@@ -4998,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>42307</v>
       </c>
@@ -5039,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>42314</v>
       </c>
@@ -5062,10 +4452,10 @@
         <v>116.5</v>
       </c>
       <c r="H98" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I98" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J98" s="4">
         <v>18.5</v>
@@ -5080,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>42321</v>
       </c>
@@ -5109,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5121,12 +4511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>42328</v>
       </c>
       <c r="B100" s="2">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C100" s="3">
         <v>15</v>
@@ -5162,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>42335</v>
       </c>
@@ -5203,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>42342</v>
       </c>
@@ -5244,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>42349</v>
       </c>
@@ -5285,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>42356</v>
       </c>
@@ -5326,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>42363</v>
       </c>
@@ -5367,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>42370</v>
       </c>
@@ -5408,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>42377</v>
       </c>
@@ -5449,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>42384</v>
       </c>
@@ -5490,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>42391</v>
       </c>
@@ -5531,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>42398</v>
       </c>
@@ -5572,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>42405</v>
       </c>
@@ -5613,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>42412</v>
       </c>
@@ -5642,7 +5032,7 @@
         <v>0.4</v>
       </c>
       <c r="J112" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -5654,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>42419</v>
       </c>
@@ -5683,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5695,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>42425</v>
       </c>
@@ -5715,7 +5105,7 @@
         <v>7.4</v>
       </c>
       <c r="G114">
-        <v>139.3</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -5724,7 +5114,7 @@
         <v>1.7</v>
       </c>
       <c r="J114" s="4">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5736,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>42433</v>
       </c>
@@ -5756,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="G115">
-        <v>138.7</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -5777,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>42440</v>
       </c>
@@ -5797,7 +5187,7 @@
         <v>5</v>
       </c>
       <c r="G116">
-        <v>137.2</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -5818,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>42447</v>
       </c>
@@ -5859,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>42454</v>
       </c>
@@ -5900,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>42461</v>
       </c>
@@ -5941,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>42468</v>
       </c>
@@ -5970,7 +5360,7 @@
         <v>1.8</v>
       </c>
       <c r="J120" s="4">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5982,12 +5372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>42475</v>
       </c>
       <c r="B121" s="2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C121" s="3">
         <v>1.3</v>
@@ -6002,7 +5392,7 @@
         <v>2.1</v>
       </c>
       <c r="G121">
-        <v>142.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="H121" s="2">
         <v>2.4</v>
@@ -6023,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>42482</v>
       </c>
@@ -6064,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>42489</v>
       </c>
@@ -6105,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>42496</v>
       </c>
@@ -6116,7 +5506,7 @@
         <v>6.1</v>
       </c>
       <c r="D124" s="4">
-        <v>129.8</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -6146,12 +5536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>42503</v>
       </c>
       <c r="B125" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C125" s="3">
         <v>6</v>
@@ -6166,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>151.2</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -6187,12 +5577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>42510</v>
       </c>
       <c r="B126" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C126" s="3">
         <v>3</v>
@@ -6228,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42517</v>
       </c>
@@ -6269,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42524</v>
       </c>
@@ -6298,7 +5688,7 @@
         <v>4.3</v>
       </c>
       <c r="J128" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -6310,12 +5700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42531</v>
       </c>
       <c r="B129" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C129" s="3">
         <v>2.4</v>
@@ -6351,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42538</v>
       </c>
@@ -6365,7 +5755,7 @@
         <v>96</v>
       </c>
       <c r="E130">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F130">
         <v>11.1</v>
@@ -6392,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42545</v>
       </c>
@@ -6433,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>42552</v>
       </c>
@@ -6474,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>42559</v>
       </c>
@@ -6494,10 +5884,10 @@
         <v>10.3</v>
       </c>
       <c r="G133">
-        <v>154.7</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="H133" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I133" s="3">
         <v>6.65</v>
@@ -6515,15 +5905,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>42566</v>
       </c>
       <c r="B134" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C134" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D134" s="4">
         <v>88</v>
@@ -6535,7 +5925,7 @@
         <v>14</v>
       </c>
       <c r="G134">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -6556,12 +5946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>42573</v>
       </c>
       <c r="B135" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C135" s="3">
         <v>3.2</v>
@@ -6597,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>42580</v>
       </c>
@@ -6638,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>42587</v>
       </c>
@@ -6679,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>42594</v>
       </c>
@@ -6693,10 +6083,10 @@
         <v>100</v>
       </c>
       <c r="E138">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F138">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G138">
         <v>146.4</v>
@@ -6720,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>42601</v>
       </c>
@@ -6761,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>42608</v>
       </c>
@@ -6769,13 +6159,13 @@
         <v>2.9</v>
       </c>
       <c r="C140" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D140" s="4">
         <v>82</v>
       </c>
       <c r="E140">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F140">
         <v>3.7</v>
@@ -6790,7 +6180,7 @@
         <v>2</v>
       </c>
       <c r="J140" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6802,12 +6192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>42615</v>
       </c>
       <c r="B141" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C141" s="3">
         <v>18.7</v>
@@ -6843,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>42622</v>
       </c>
@@ -6863,10 +6253,10 @@
         <v>5.8</v>
       </c>
       <c r="G142">
-        <v>148.7</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="H142" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I142" s="3">
         <v>6</v>
@@ -6884,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>42629</v>
       </c>
@@ -6925,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>42636</v>
       </c>
@@ -6966,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>42650</v>
       </c>
@@ -6986,7 +6376,7 @@
         <v>15.9</v>
       </c>
       <c r="G145">
-        <v>141.7</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="H145" s="2">
         <v>3.1</v>
@@ -7007,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>42657</v>
       </c>
@@ -7015,7 +6405,7 @@
         <v>9.1</v>
       </c>
       <c r="C146" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D146" s="4">
         <v>82</v>
@@ -7027,7 +6417,7 @@
         <v>5.9</v>
       </c>
       <c r="G146">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -7048,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>42664</v>
       </c>
@@ -7089,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>42671</v>
       </c>
@@ -7130,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>42678</v>
       </c>
@@ -7147,13 +6537,13 @@
         <v>27.9</v>
       </c>
       <c r="F149">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G149">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="H149" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I149" s="3">
         <v>2</v>
@@ -7171,7 +6561,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>42685</v>
       </c>
@@ -7212,7 +6602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>42692</v>
       </c>
@@ -7253,7 +6643,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>42699</v>
       </c>
@@ -7294,7 +6684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>42709</v>
       </c>
@@ -7323,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K153">
         <v>6.2</v>
@@ -7332,10 +6722,10 @@
         <v>7</v>
       </c>
       <c r="M153">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>42716</v>
       </c>
@@ -7376,7 +6766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>42723</v>
       </c>
@@ -7417,7 +6807,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>42730</v>
       </c>
@@ -7443,13 +6833,13 @@
         <v>6.9</v>
       </c>
       <c r="I156" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J156" s="4">
         <v>31.8</v>
       </c>
       <c r="K156">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L156">
         <v>6.1</v>
@@ -7458,7 +6848,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>42737</v>
       </c>
@@ -7484,10 +6874,10 @@
         <v>13.3</v>
       </c>
       <c r="I157" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J157" s="4">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K157">
         <v>7.1</v>
@@ -7499,7 +6889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>42744</v>
       </c>
@@ -7540,7 +6930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>42748</v>
       </c>
@@ -7581,7 +6971,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>42755</v>
       </c>
@@ -7622,7 +7012,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>42770</v>
       </c>
@@ -7663,7 +7053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>42776</v>
       </c>
@@ -7704,7 +7094,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>42783</v>
       </c>
@@ -7721,7 +7111,7 @@
         <v>34.9</v>
       </c>
       <c r="F163">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G163">
         <v>185</v>
@@ -7745,7 +7135,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>42790</v>
       </c>
@@ -7786,7 +7176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>42801</v>
       </c>
@@ -7827,7 +7217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>42807</v>
       </c>
@@ -7841,7 +7231,7 @@
         <v>127</v>
       </c>
       <c r="E166">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F166">
         <v>34</v>
@@ -7868,7 +7258,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>42814</v>
       </c>
@@ -7885,7 +7275,7 @@
         <v>29.3</v>
       </c>
       <c r="F167">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G167">
         <v>196</v>
@@ -7900,7 +7290,7 @@
         <v>58.4</v>
       </c>
       <c r="K167">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L167">
         <v>7.4</v>
@@ -7909,7 +7299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>42821</v>
       </c>
@@ -7917,7 +7307,7 @@
         <v>19.3</v>
       </c>
       <c r="C168" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D168" s="4">
         <v>124</v>
@@ -7947,10 +7337,10 @@
         <v>2.6</v>
       </c>
       <c r="M168">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>42835</v>
       </c>
@@ -7982,7 +7372,7 @@
         <v>57.1</v>
       </c>
       <c r="K169">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L169">
         <v>5</v>
@@ -7991,7 +7381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>42842</v>
       </c>
@@ -8017,7 +7407,7 @@
         <v>4.5</v>
       </c>
       <c r="I170" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J170" s="4">
         <v>59.4</v>
@@ -8032,7 +7422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>42849</v>
       </c>
@@ -8073,7 +7463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>42858</v>
       </c>
@@ -8087,7 +7477,7 @@
         <v>102</v>
       </c>
       <c r="E172">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F172">
         <v>20.3</v>
@@ -8114,7 +7504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>42863</v>
       </c>
@@ -8155,7 +7545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>42870</v>
       </c>
@@ -8196,12 +7586,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>42877</v>
       </c>
       <c r="B175" s="2">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C175" s="3">
         <v>17.8</v>
@@ -8237,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>42885</v>
       </c>
@@ -8278,7 +7668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>42891</v>
       </c>
@@ -8319,7 +7709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>42898</v>
       </c>
@@ -8342,7 +7732,7 @@
         <v>171.8</v>
       </c>
       <c r="H178" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I178" s="3">
         <v>6.8</v>
@@ -8360,7 +7750,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>42905</v>
       </c>
@@ -8377,7 +7767,7 @@
         <v>15.9</v>
       </c>
       <c r="F179">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G179">
         <v>167.6</v>
@@ -8401,7 +7791,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>42912</v>
       </c>
@@ -8442,7 +7832,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>42919</v>
       </c>
@@ -8483,7 +7873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>42926</v>
       </c>
@@ -8515,7 +7905,7 @@
         <v>50.4</v>
       </c>
       <c r="K182">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L182">
         <v>6.4</v>
@@ -8524,7 +7914,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>42933</v>
       </c>
@@ -8547,7 +7937,7 @@
         <v>171</v>
       </c>
       <c r="H183" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I183" s="3">
         <v>9.1</v>
@@ -8565,7 +7955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>42941</v>
       </c>
@@ -8573,7 +7963,7 @@
         <v>8.4</v>
       </c>
       <c r="C184" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D184" s="4">
         <v>117.2</v>
@@ -8591,7 +7981,7 @@
         <v>4.7</v>
       </c>
       <c r="I184" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J184" s="4">
         <v>46.4</v>
@@ -8606,7 +7996,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>42947</v>
       </c>
@@ -8629,7 +8019,7 @@
         <v>169</v>
       </c>
       <c r="H185" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I185" s="3">
         <v>2.6</v>
@@ -8647,7 +8037,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>42954</v>
       </c>
@@ -8688,12 +8078,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>42961</v>
       </c>
       <c r="B187" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C187" s="3">
         <v>17</v>
@@ -8729,7 +8119,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>42968</v>
       </c>
@@ -8752,7 +8142,7 @@
         <v>171</v>
       </c>
       <c r="H188" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I188" s="3">
         <v>0.2</v>
@@ -8770,7 +8160,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>42975</v>
       </c>
@@ -8787,13 +8177,13 @@
         <v>14.9</v>
       </c>
       <c r="F189">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G189">
         <v>166</v>
       </c>
       <c r="H189" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I189" s="3">
         <v>5.2</v>
@@ -8811,7 +8201,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>42979</v>
       </c>
@@ -8825,7 +8215,7 @@
         <v>90.2</v>
       </c>
       <c r="E190">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F190">
         <v>14.6</v>
@@ -8834,7 +8224,7 @@
         <v>170.3</v>
       </c>
       <c r="H190" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I190" s="3">
         <v>11.4</v>
@@ -8846,13 +8236,13 @@
         <v>2</v>
       </c>
       <c r="L190">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M190">
         <v>14.7</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>42986</v>
       </c>
@@ -8875,7 +8265,7 @@
         <v>172</v>
       </c>
       <c r="H191" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I191" s="3">
         <v>6.7</v>
@@ -8884,7 +8274,7 @@
         <v>53</v>
       </c>
       <c r="K191">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L191">
         <v>8.1</v>
@@ -8893,7 +8283,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>42993</v>
       </c>
@@ -8919,7 +8309,7 @@
         <v>5.6</v>
       </c>
       <c r="I192" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J192" s="4">
         <v>56.3</v>
@@ -8928,18 +8318,18 @@
         <v>1.5</v>
       </c>
       <c r="L192">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M192">
         <v>12.5</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>43000</v>
       </c>
       <c r="B193" s="2">
-        <v>9.80000000000001</v>
+        <v>9.8000000000000096</v>
       </c>
       <c r="C193" s="3">
         <v>7.4</v>
@@ -8972,10 +8362,10 @@
         <v>4.3</v>
       </c>
       <c r="M193">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>43007</v>
       </c>
@@ -9016,7 +8406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>43014</v>
       </c>
@@ -9057,7 +8447,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>43021</v>
       </c>
@@ -9074,13 +8464,13 @@
         <v>28.6</v>
       </c>
       <c r="F196">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G196">
         <v>176</v>
       </c>
       <c r="H196" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I196" s="3">
         <v>3.5</v>
@@ -9092,21 +8482,21 @@
         <v>3.9</v>
       </c>
       <c r="L196">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M196">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>43028</v>
       </c>
       <c r="B197" s="2">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C197" s="3">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D197" s="4">
         <v>104.1</v>
@@ -9136,10 +8526,10 @@
         <v>7.4</v>
       </c>
       <c r="M197">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>43035</v>
       </c>
@@ -9180,7 +8570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>43042</v>
       </c>
@@ -9221,7 +8611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>43049</v>
       </c>
@@ -9262,7 +8652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>43056</v>
       </c>
@@ -9276,10 +8666,10 @@
         <v>137</v>
       </c>
       <c r="E201">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F201">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="G201">
         <v>208</v>
@@ -9297,13 +8687,13 @@
         <v>11.7</v>
       </c>
       <c r="L201">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M201">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>43063</v>
       </c>
@@ -9344,7 +8734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>43070</v>
       </c>
@@ -9352,7 +8742,7 @@
         <v>41.3</v>
       </c>
       <c r="C203" s="3">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="D203" s="4">
         <v>149</v>
@@ -9367,13 +8757,13 @@
         <v>188.8</v>
       </c>
       <c r="H203" s="2">
-        <v>8.90000000000001</v>
+        <v>8.9000000000000092</v>
       </c>
       <c r="I203" s="3">
         <v>4.3</v>
       </c>
       <c r="J203" s="4">
-        <v>75.9</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K203">
         <v>3.5</v>
@@ -9385,7 +8775,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>43077</v>
       </c>
@@ -9408,7 +8798,7 @@
         <v>194</v>
       </c>
       <c r="H204" s="2">
-        <v>6.09999999999999</v>
+        <v>6.0999999999999899</v>
       </c>
       <c r="I204" s="3">
         <v>3.7</v>
@@ -9426,7 +8816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>43084</v>
       </c>
@@ -9443,19 +8833,19 @@
         <v>29.8</v>
       </c>
       <c r="F205">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="G205">
         <v>186</v>
       </c>
       <c r="H205" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I205" s="3">
         <v>7.4</v>
       </c>
       <c r="J205" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="K205">
         <v>3</v>
@@ -9467,7 +8857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>43091</v>
       </c>
@@ -9508,7 +8898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>43098</v>
       </c>
@@ -9519,7 +8909,7 @@
         <v>44.6</v>
       </c>
       <c r="D207" s="4">
-        <v>134.3</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="E207">
         <v>22.6</v>
@@ -9549,7 +8939,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>43105</v>
       </c>
@@ -9560,7 +8950,7 @@
         <v>23.1</v>
       </c>
       <c r="D208" s="4">
-        <v>136.3</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="E208">
         <v>14.8</v>
@@ -9572,13 +8962,13 @@
         <v>171.8</v>
       </c>
       <c r="H208" s="2">
-        <v>3.99999999999999</v>
+        <v>3.9999999999999898</v>
       </c>
       <c r="I208" s="3">
         <v>2.4</v>
       </c>
       <c r="J208" s="4">
-        <v>69.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="K208">
         <v>2.6</v>
@@ -9587,10 +8977,10 @@
         <v>3.5</v>
       </c>
       <c r="M208">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>43112</v>
       </c>
@@ -9607,7 +8997,7 @@
         <v>10</v>
       </c>
       <c r="F209">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G209">
         <v>172</v>
@@ -9631,7 +9021,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>43119</v>
       </c>
@@ -9648,7 +9038,7 @@
         <v>11.1</v>
       </c>
       <c r="F210">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G210">
         <v>167</v>
@@ -9669,10 +9059,10 @@
         <v>4.8</v>
       </c>
       <c r="M210">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>43126</v>
       </c>
@@ -9695,25 +9085,25 @@
         <v>162</v>
       </c>
       <c r="H211" s="2">
-        <v>5.59999999999999</v>
+        <v>5.5999999999999899</v>
       </c>
       <c r="I211" s="3">
         <v>5.5</v>
       </c>
       <c r="J211" s="4">
-        <v>69.6</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="K211">
         <v>3.1</v>
       </c>
       <c r="L211">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M211">
         <v>18.3</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>43133</v>
       </c>
@@ -9727,7 +9117,7 @@
         <v>133.1</v>
       </c>
       <c r="E212">
-        <v>5.90000000000001</v>
+        <v>5.9000000000000101</v>
       </c>
       <c r="F212">
         <v>12.9</v>
@@ -9736,13 +9126,13 @@
         <v>155</v>
       </c>
       <c r="H212" s="2">
-        <v>4.80000000000001</v>
+        <v>4.8000000000000096</v>
       </c>
       <c r="I212" s="3">
         <v>6</v>
       </c>
       <c r="J212" s="4">
-        <v>68.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="K212">
         <v>2.5</v>
@@ -9754,12 +9144,12 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>43140</v>
       </c>
       <c r="B213" s="2">
-        <v>6.40000000000001</v>
+        <v>6.4000000000000101</v>
       </c>
       <c r="C213" s="3">
         <v>11.75</v>
@@ -9768,7 +9158,7 @@
         <v>127.75</v>
       </c>
       <c r="E213">
-        <v>2.09999999999999</v>
+        <v>2.0999999999999899</v>
       </c>
       <c r="F213">
         <v>7.1</v>
@@ -9777,10 +9167,10 @@
         <v>150</v>
       </c>
       <c r="H213" s="2">
-        <v>5.79999999999999</v>
+        <v>5.7999999999999901</v>
       </c>
       <c r="I213" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J213" s="4">
         <v>65</v>
@@ -9795,7 +9185,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>43147</v>
       </c>
@@ -9809,7 +9199,7 @@
         <v>114</v>
       </c>
       <c r="E214">
-        <v>1.09999999999999</v>
+        <v>1.0999999999999901</v>
       </c>
       <c r="F214">
         <v>3.1</v>
@@ -9821,7 +9211,7 @@
         <v>0.999999999999998</v>
       </c>
       <c r="I214" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J214" s="4">
         <v>61.9</v>
@@ -9836,12 +9226,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>43154</v>
       </c>
       <c r="B215" s="2">
-        <v>2.40000000000001</v>
+        <v>2.4000000000000101</v>
       </c>
       <c r="C215" s="3">
         <v>13.4</v>
@@ -9877,7 +9267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>43161</v>
       </c>
@@ -9891,7 +9281,7 @@
         <v>81</v>
       </c>
       <c r="E216">
-        <v>1.90000000000001</v>
+        <v>1.9000000000000099</v>
       </c>
       <c r="F216">
         <v>7.9</v>
@@ -9918,21 +9308,21 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>43168</v>
       </c>
       <c r="B217" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C217" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D217" s="4">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="E217">
-        <v>4.19999999999999</v>
+        <v>4.1999999999999904</v>
       </c>
       <c r="F217">
         <v>11.7</v>
@@ -9959,7 +9349,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>43175</v>
       </c>
@@ -9973,10 +9363,10 @@
         <v>75</v>
       </c>
       <c r="E218">
-        <v>8.40000000000001</v>
+        <v>8.4000000000000092</v>
       </c>
       <c r="F218">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G218">
         <v>132.5</v>
@@ -10000,7 +9390,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>43182</v>
       </c>
@@ -10014,7 +9404,7 @@
         <v>70</v>
       </c>
       <c r="E219">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F219">
         <v>10.7</v>
@@ -10041,7 +9431,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>43189</v>
       </c>
@@ -10049,10 +9439,10 @@
         <v>26</v>
       </c>
       <c r="C220" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D220" s="4">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="E220">
         <v>13</v>
@@ -10061,7 +9451,7 @@
         <v>6.8</v>
       </c>
       <c r="G220">
-        <v>138.2</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="H220" s="2">
         <v>6.7</v>
@@ -10070,7 +9460,7 @@
         <v>10</v>
       </c>
       <c r="J220" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K220">
         <v>4.3</v>
@@ -10082,7 +9472,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>43196</v>
       </c>
@@ -10120,10 +9510,10 @@
         <v>0.6</v>
       </c>
       <c r="M221">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>43203</v>
       </c>
@@ -10131,13 +9521,13 @@
         <v>33.6</v>
       </c>
       <c r="C222" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D222" s="4">
         <v>80</v>
       </c>
       <c r="E222">
-        <v>7.80000000000001</v>
+        <v>7.8000000000000096</v>
       </c>
       <c r="F222">
         <v>6.8</v>
@@ -10149,7 +9539,7 @@
         <v>3.5</v>
       </c>
       <c r="I222" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J222" s="4">
         <v>31.2</v>
@@ -10164,7 +9554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>43210</v>
       </c>
@@ -10181,13 +9571,13 @@
         <v>12.2</v>
       </c>
       <c r="F223">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G223">
         <v>137</v>
       </c>
       <c r="H223" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I223" s="3">
         <v>2.9</v>
@@ -10196,16 +9586,16 @@
         <v>37</v>
       </c>
       <c r="K223">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L223">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M223">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>43217</v>
       </c>
@@ -10246,7 +9636,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>43224</v>
       </c>
@@ -10254,7 +9644,7 @@
         <v>25.3</v>
       </c>
       <c r="C225" s="3">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D225" s="4">
         <v>116</v>
@@ -10266,7 +9656,7 @@
         <v>11</v>
       </c>
       <c r="G225">
-        <v>153.8</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="H225" s="2">
         <v>9</v>
@@ -10287,7 +9677,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>43231</v>
       </c>
@@ -10307,7 +9697,7 @@
         <v>13.6</v>
       </c>
       <c r="G226">
-        <v>160.8</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="H226" s="2">
         <v>22.2</v>
@@ -10328,7 +9718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>43238</v>
       </c>
@@ -10369,12 +9759,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>43245</v>
       </c>
       <c r="B228" s="2">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C228" s="3">
         <v>17.7</v>
@@ -10392,7 +9782,7 @@
         <v>168</v>
       </c>
       <c r="H228" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I228" s="3">
         <v>5.8</v>
@@ -10410,12 +9800,12 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>43252</v>
       </c>
       <c r="B229" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C229" s="3">
         <v>12.6</v>
@@ -10433,7 +9823,7 @@
         <v>176</v>
       </c>
       <c r="H229" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I229" s="3">
         <v>7.6</v>
@@ -10448,10 +9838,10 @@
         <v>2</v>
       </c>
       <c r="M229">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>43259</v>
       </c>
@@ -10474,7 +9864,7 @@
         <v>179.3</v>
       </c>
       <c r="H230" s="2">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I230" s="3">
         <v>19.5</v>
@@ -10492,7 +9882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>43266</v>
       </c>
@@ -10533,7 +9923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>43273</v>
       </c>
@@ -10547,7 +9937,7 @@
         <v>126.9</v>
       </c>
       <c r="E232">
-        <v>8.19999999999999</v>
+        <v>8.1999999999999904</v>
       </c>
       <c r="F232">
         <v>11.7</v>
@@ -10574,7 +9964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>43280</v>
       </c>
@@ -10597,10 +9987,10 @@
         <v>174</v>
       </c>
       <c r="H233" s="2">
-        <v>5.10000000000001</v>
+        <v>5.1000000000000103</v>
       </c>
       <c r="I233" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J233" s="4">
         <v>63.2</v>
@@ -10615,7 +10005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>43287</v>
       </c>
@@ -10629,7 +10019,7 @@
         <v>138</v>
       </c>
       <c r="E234">
-        <v>8.69999999999999</v>
+        <v>8.6999999999999904</v>
       </c>
       <c r="F234">
         <v>16.7</v>
@@ -10644,7 +10034,7 @@
         <v>3</v>
       </c>
       <c r="J234" s="4">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K234">
         <v>2.6</v>
@@ -10656,7 +10046,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>43294</v>
       </c>
@@ -10670,16 +10060,16 @@
         <v>140.5</v>
       </c>
       <c r="E235">
-        <v>7.60000000000002</v>
+        <v>7.6000000000000201</v>
       </c>
       <c r="F235">
         <v>10.3</v>
       </c>
       <c r="G235">
-        <v>159.3</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="H235" s="2">
-        <v>2.47999999999999</v>
+        <v>2.4799999999999902</v>
       </c>
       <c r="I235" s="3">
         <v>5.98</v>
@@ -10688,7 +10078,7 @@
         <v>60.9</v>
       </c>
       <c r="K235">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L235">
         <v>5</v>
@@ -10697,7 +10087,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>43301</v>
       </c>
@@ -10708,7 +10098,7 @@
         <v>16.5</v>
       </c>
       <c r="D236" s="4">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="E236">
         <v>23.5</v>
@@ -10738,7 +10128,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>43308</v>
       </c>
@@ -10749,7 +10139,7 @@
         <v>20.3</v>
       </c>
       <c r="D237" s="4">
-        <v>139.8</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="E237">
         <v>14</v>
@@ -10758,7 +10148,7 @@
         <v>14.8</v>
       </c>
       <c r="G237">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="H237" s="2">
         <v>6.2</v>
@@ -10779,18 +10169,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>43315</v>
       </c>
       <c r="B238" s="2">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C238" s="3">
         <v>11.6</v>
       </c>
       <c r="D238" s="4">
-        <v>144.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="E238">
         <v>14.6</v>
@@ -10820,7 +10210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>43322</v>
       </c>
@@ -10861,7 +10251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>43329</v>
       </c>
@@ -10872,10 +10262,10 @@
         <v>13.4</v>
       </c>
       <c r="D240" s="4">
-        <v>149.8</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="E240">
-        <v>7.40000000000001</v>
+        <v>7.4000000000000101</v>
       </c>
       <c r="F240">
         <v>13.9</v>
@@ -10902,12 +10292,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>43336</v>
       </c>
       <c r="B241" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C241" s="3">
         <v>21.4</v>
@@ -10916,16 +10306,16 @@
         <v>146.5</v>
       </c>
       <c r="E241">
-        <v>3.09999999999999</v>
+        <v>3.0999999999999899</v>
       </c>
       <c r="F241">
         <v>8.4</v>
       </c>
       <c r="G241">
-        <v>149.7</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="H241" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I241" s="3">
         <v>6.3</v>
@@ -10943,7 +10333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>43343</v>
       </c>
@@ -10954,7 +10344,7 @@
         <v>17.2</v>
       </c>
       <c r="D242" s="4">
-        <v>146.8</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="E242">
         <v>4.5</v>
@@ -10984,7 +10374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>43350</v>
       </c>
@@ -10995,16 +10385,16 @@
         <v>14.7</v>
       </c>
       <c r="D243" s="4">
-        <v>149.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="E243">
-        <v>9.80000000000001</v>
+        <v>9.8000000000000096</v>
       </c>
       <c r="F243">
         <v>17</v>
       </c>
       <c r="G243">
-        <v>132.8</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="H243" s="2">
         <v>9.4</v>
@@ -11025,7 +10415,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>43357</v>
       </c>
@@ -11057,7 +10447,7 @@
         <v>53.5</v>
       </c>
       <c r="K244">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L244">
         <v>4.8</v>
@@ -11066,7 +10456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>43364</v>
       </c>
@@ -11107,7 +10497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>43371</v>
       </c>
@@ -11139,7 +10529,7 @@
         <v>52</v>
       </c>
       <c r="K246">
-        <v>0.300000000000001</v>
+        <v>0.30000000000000099</v>
       </c>
       <c r="L246">
         <v>1.3</v>
@@ -11148,7 +10538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>43378</v>
       </c>
@@ -11180,7 +10570,7 @@
         <v>55.6</v>
       </c>
       <c r="K247">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L247">
         <v>3.2</v>
@@ -11189,7 +10579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>43385</v>
       </c>
@@ -11200,7 +10590,7 @@
         <v>10.5</v>
       </c>
       <c r="D248" s="4">
-        <v>137.7</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E248">
         <v>10.9</v>
@@ -11221,7 +10611,7 @@
         <v>56.9</v>
       </c>
       <c r="K248">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L248">
         <v>5.8</v>
@@ -11230,7 +10620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>43392</v>
       </c>
@@ -11244,7 +10634,7 @@
         <v>136.4</v>
       </c>
       <c r="E249">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F249">
         <v>10</v>
@@ -11271,7 +10661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>43399</v>
       </c>
@@ -11282,13 +10672,13 @@
         <v>22.34</v>
       </c>
       <c r="D250" s="4">
-        <v>134.33</v>
+        <v>134.33000000000001</v>
       </c>
       <c r="E250">
         <v>22.6</v>
       </c>
       <c r="F250">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G250">
         <v>119.7</v>
@@ -11312,7 +10702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>43406</v>
       </c>
@@ -11323,7 +10713,7 @@
         <v>33</v>
       </c>
       <c r="D251" s="4">
-        <v>128.48</v>
+        <v>128.47999999999999</v>
       </c>
       <c r="E251">
         <v>20</v>
@@ -11344,7 +10734,7 @@
         <v>55.3</v>
       </c>
       <c r="K251">
-        <v>0.300000000000001</v>
+        <v>0.30000000000000099</v>
       </c>
       <c r="L251">
         <v>0.3</v>
@@ -11353,7 +10743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>43413</v>
       </c>
@@ -11376,7 +10766,7 @@
         <v>116.2</v>
       </c>
       <c r="H252" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I252" s="3">
         <v>17.5</v>
@@ -11394,7 +10784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>43420</v>
       </c>
@@ -11435,7 +10825,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>43427</v>
       </c>
@@ -11446,13 +10836,13 @@
         <v>24.14</v>
       </c>
       <c r="D254" s="4">
-        <v>133.23</v>
+        <v>133.22999999999999</v>
       </c>
       <c r="E254">
         <v>13.1</v>
       </c>
       <c r="F254">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G254">
         <v>118</v>
@@ -11476,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>43434</v>
       </c>
@@ -11487,7 +10877,7 @@
         <v>27.44</v>
       </c>
       <c r="D255" s="4">
-        <v>135.64</v>
+        <v>135.63999999999999</v>
       </c>
       <c r="E255">
         <v>12.5</v>
@@ -11499,7 +10889,7 @@
         <v>117.6</v>
       </c>
       <c r="H255" s="2">
-        <v>8.09999999999999</v>
+        <v>8.0999999999999908</v>
       </c>
       <c r="I255" s="3">
         <v>8.64</v>
@@ -11517,7 +10907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>43441</v>
       </c>
@@ -11528,7 +10918,7 @@
         <v>29.7</v>
       </c>
       <c r="D256" s="4">
-        <v>129.08</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="E256">
         <v>23.7</v>
@@ -11558,7 +10948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>43448</v>
       </c>
@@ -11569,7 +10959,7 @@
         <v>34.1</v>
       </c>
       <c r="D257" s="4">
-        <v>129.8</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="E257">
         <v>26.3</v>
@@ -11599,12 +10989,12 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>43455</v>
       </c>
       <c r="B258" s="2">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C258" s="3">
         <v>28</v>
@@ -11640,7 +11030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>43462</v>
       </c>
@@ -11651,7 +11041,7 @@
         <v>36.5</v>
       </c>
       <c r="D259" s="4">
-        <v>133.7</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="E259">
         <v>18</v>
@@ -11681,18 +11071,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>43469</v>
       </c>
       <c r="B260" s="2">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C260" s="3">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D260" s="4">
-        <v>138.7</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="E260">
         <v>17.3</v>
@@ -11722,7 +11112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>43476</v>
       </c>
@@ -11730,10 +11120,10 @@
         <v>36.4</v>
       </c>
       <c r="C261" s="3">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D261" s="4">
-        <v>141.3</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="E261">
         <v>20</v>
@@ -11763,7 +11153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>43483</v>
       </c>
@@ -11774,7 +11164,7 @@
         <v>29.2</v>
       </c>
       <c r="D262" s="4">
-        <v>137.02</v>
+        <v>137.02000000000001</v>
       </c>
       <c r="E262">
         <v>26.6</v>
@@ -11804,7 +11194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>43490</v>
       </c>
@@ -11839,13 +11229,13 @@
         <v>5.4</v>
       </c>
       <c r="L263">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M263">
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>43497</v>
       </c>
@@ -11886,7 +11276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>43504</v>
       </c>
@@ -11897,7 +11287,7 @@
         <v>11.1</v>
       </c>
       <c r="D265" s="4">
-        <v>135.8</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="E265">
         <v>6</v>
@@ -11927,7 +11317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>43511</v>
       </c>
@@ -11938,7 +11328,7 @@
         <v>15.1</v>
       </c>
       <c r="D266" s="4">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="E266">
         <v>22.7</v>
@@ -11953,7 +11343,7 @@
         <v>10.1</v>
       </c>
       <c r="I266" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J266" s="4">
         <v>65.5</v>
@@ -11968,7 +11358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>43518</v>
       </c>
@@ -11985,7 +11375,7 @@
         <v>25.4</v>
       </c>
       <c r="F267">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G267">
         <v>127</v>
@@ -11997,7 +11387,7 @@
         <v>6.3</v>
       </c>
       <c r="J267" s="4">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="K267">
         <v>5</v>
@@ -12009,7 +11399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>43525</v>
       </c>
@@ -12017,7 +11407,7 @@
         <v>30.9</v>
       </c>
       <c r="C268" s="3">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D268" s="4">
         <v>174.8</v>
@@ -12032,10 +11422,10 @@
         <v>135</v>
       </c>
       <c r="H268" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I268" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J268" s="4">
         <v>66.7</v>
@@ -12050,7 +11440,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>43532</v>
       </c>
@@ -12064,7 +11454,7 @@
         <v>189.8</v>
       </c>
       <c r="E269">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F269">
         <v>8</v>
@@ -12091,7 +11481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>43539</v>
       </c>
@@ -12132,7 +11522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>43546</v>
       </c>
@@ -12140,7 +11530,7 @@
         <v>21.5</v>
       </c>
       <c r="C271" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D271" s="4">
         <v>211.6</v>
@@ -12173,7 +11563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>43553</v>
       </c>
@@ -12190,7 +11580,7 @@
         <v>22.4</v>
       </c>
       <c r="F272">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G272">
         <v>173</v>
@@ -12214,7 +11604,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>43560</v>
       </c>
@@ -12249,13 +11639,13 @@
         <v>3.1</v>
       </c>
       <c r="L273">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M273">
         <v>22.6</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>43567</v>
       </c>
@@ -12278,7 +11668,7 @@
         <v>170</v>
       </c>
       <c r="H274" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I274" s="3">
         <v>4.2</v>
@@ -12296,7 +11686,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>43574</v>
       </c>
@@ -12308,7 +11698,7 @@
       </c>
       <c r="D275" s="4">
         <f>D274+B275-C275</f>
-        <v>220.1</v>
+        <v>220.10000000000002</v>
       </c>
       <c r="E275">
         <v>14.6</v>
@@ -12339,7 +11729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>43581</v>
       </c>
@@ -12363,14 +11753,14 @@
         <v>184</v>
       </c>
       <c r="H276" s="2">
-        <v>2.39999999999999</v>
+        <v>2.3999999999999901</v>
       </c>
       <c r="I276" s="3">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J276" s="4">
         <f t="shared" ref="J276:J297" si="1">J275+H276-I276</f>
-        <v>60.1</v>
+        <v>60.099999999999994</v>
       </c>
       <c r="K276">
         <v>2.5</v>
@@ -12382,12 +11772,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>43588</v>
       </c>
       <c r="B277" s="2">
-        <v>6.40000000000001</v>
+        <v>6.4000000000000101</v>
       </c>
       <c r="C277" s="3">
         <v>7.4</v>
@@ -12406,7 +11796,7 @@
         <v>182</v>
       </c>
       <c r="H277" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I277" s="3">
         <v>10.3</v>
@@ -12416,7 +11806,7 @@
         <v>60</v>
       </c>
       <c r="K277">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L277">
         <v>0.4</v>
@@ -12425,7 +11815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>43595</v>
       </c>
@@ -12460,7 +11850,7 @@
         <v>61.8</v>
       </c>
       <c r="K278">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L278">
         <v>4.3</v>
@@ -12470,7 +11860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>43602</v>
       </c>
@@ -12502,7 +11892,7 @@
       </c>
       <c r="J279" s="4">
         <f t="shared" si="1"/>
-        <v>58.6</v>
+        <v>58.599999999999994</v>
       </c>
       <c r="K279">
         <v>3.2</v>
@@ -12515,7 +11905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>43609</v>
       </c>
@@ -12523,7 +11913,7 @@
         <v>9.1</v>
       </c>
       <c r="C280" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D280" s="4">
         <f t="shared" si="0"/>
@@ -12547,7 +11937,7 @@
       </c>
       <c r="J280" s="4">
         <f t="shared" si="1"/>
-        <v>60.5</v>
+        <v>60.499999999999993</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -12560,19 +11950,19 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>43616</v>
       </c>
       <c r="B281" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C281" s="3">
         <v>21.3</v>
       </c>
       <c r="D281" s="4">
         <f t="shared" si="0"/>
-        <v>190.4</v>
+        <v>190.39999999999998</v>
       </c>
       <c r="E281">
         <v>7</v>
@@ -12582,7 +11972,7 @@
       </c>
       <c r="G281">
         <f t="shared" si="2"/>
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="H281" s="2">
         <v>8</v>
@@ -12605,7 +11995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>43622</v>
       </c>
@@ -12617,7 +12007,7 @@
       </c>
       <c r="D282" s="4">
         <f t="shared" si="0"/>
-        <v>183.3</v>
+        <v>183.29999999999998</v>
       </c>
       <c r="E282">
         <v>4.5</v>
@@ -12627,7 +12017,7 @@
       </c>
       <c r="G282">
         <f t="shared" si="2"/>
-        <v>150.2</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="H282" s="2">
         <v>3.6</v>
@@ -12650,7 +12040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>43630</v>
       </c>
@@ -12662,7 +12052,7 @@
       </c>
       <c r="D283" s="4">
         <f t="shared" si="0"/>
-        <v>175.9</v>
+        <v>175.89999999999998</v>
       </c>
       <c r="E283">
         <v>2.5</v>
@@ -12672,7 +12062,7 @@
       </c>
       <c r="G283">
         <f t="shared" si="2"/>
-        <v>147.7</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="H283" s="2">
         <v>5.6</v>
@@ -12695,7 +12085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>43637</v>
       </c>
@@ -12707,7 +12097,7 @@
       </c>
       <c r="D284" s="4">
         <f t="shared" si="0"/>
-        <v>163.9</v>
+        <v>163.89999999999998</v>
       </c>
       <c r="E284">
         <v>3</v>
@@ -12717,7 +12107,7 @@
       </c>
       <c r="G284">
         <f t="shared" si="2"/>
-        <v>142.7</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="H284" s="2">
         <v>3.8</v>
@@ -12740,7 +12130,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>43644</v>
       </c>
@@ -12752,7 +12142,7 @@
       </c>
       <c r="D285" s="4">
         <f t="shared" si="0"/>
-        <v>156.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="E285">
         <v>2.8</v>
@@ -12772,7 +12162,7 @@
       </c>
       <c r="J285" s="4">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>54.000000000000007</v>
       </c>
       <c r="K285">
         <v>0</v>
@@ -12785,7 +12175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>43651</v>
       </c>
@@ -12807,7 +12197,7 @@
       </c>
       <c r="G286">
         <f t="shared" si="2"/>
-        <v>132.7</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="H286" s="2">
         <v>2.9</v>
@@ -12817,7 +12207,7 @@
       </c>
       <c r="J286" s="4">
         <f t="shared" si="1"/>
-        <v>56.6</v>
+        <v>56.600000000000009</v>
       </c>
       <c r="K286">
         <v>1.8</v>
@@ -12830,12 +12220,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>43658</v>
       </c>
       <c r="B287" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C287" s="3">
         <v>15.2</v>
@@ -12852,7 +12242,7 @@
       </c>
       <c r="G287">
         <f t="shared" si="2"/>
-        <v>128.7</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="H287" s="2">
         <v>5.4</v>
@@ -12862,20 +12252,20 @@
       </c>
       <c r="J287" s="4">
         <f t="shared" si="1"/>
-        <v>59.6</v>
+        <v>59.600000000000009</v>
       </c>
       <c r="K287">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L287">
         <v>0.9</v>
       </c>
       <c r="M287">
         <f t="shared" si="3"/>
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13">
+        <v>24.200000000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>43665</v>
       </c>
@@ -12897,7 +12287,7 @@
       </c>
       <c r="G288">
         <f t="shared" si="2"/>
-        <v>124.7</v>
+        <v>124.69999999999999</v>
       </c>
       <c r="H288" s="2">
         <v>1.3</v>
@@ -12907,20 +12297,20 @@
       </c>
       <c r="J288" s="4">
         <f t="shared" si="1"/>
-        <v>56.1</v>
+        <v>56.100000000000009</v>
       </c>
       <c r="K288">
         <v>3</v>
       </c>
       <c r="L288">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M288">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13">
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>43672</v>
       </c>
@@ -12942,7 +12332,7 @@
       </c>
       <c r="G289">
         <f t="shared" si="2"/>
-        <v>119.3</v>
+        <v>119.29999999999998</v>
       </c>
       <c r="H289" s="2">
         <v>2</v>
@@ -12952,7 +12342,7 @@
       </c>
       <c r="J289" s="4">
         <f t="shared" si="1"/>
-        <v>52.1</v>
+        <v>52.100000000000009</v>
       </c>
       <c r="K289">
         <v>2</v>
@@ -12962,15 +12352,15 @@
       </c>
       <c r="M289">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13">
+        <v>26.000000000000004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>43679</v>
       </c>
       <c r="B290" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C290" s="3">
         <v>14.5</v>
@@ -12987,17 +12377,17 @@
       </c>
       <c r="G290">
         <f t="shared" si="2"/>
-        <v>117.1</v>
+        <v>117.09999999999998</v>
       </c>
       <c r="H290" s="2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I290" s="3">
         <v>0.5</v>
       </c>
       <c r="J290" s="4">
         <f t="shared" si="1"/>
-        <v>53.9</v>
+        <v>53.900000000000006</v>
       </c>
       <c r="K290">
         <v>2</v>
@@ -13007,10 +12397,10 @@
       </c>
       <c r="M290">
         <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13">
+        <v>25.500000000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>43686</v>
       </c>
@@ -13018,7 +12408,7 @@
         <v>2.4</v>
       </c>
       <c r="C291" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D291" s="4">
         <f t="shared" si="0"/>
@@ -13032,7 +12422,7 @@
       </c>
       <c r="G291">
         <f t="shared" si="2"/>
-        <v>112.9</v>
+        <v>112.89999999999998</v>
       </c>
       <c r="H291" s="2">
         <v>0</v>
@@ -13042,7 +12432,7 @@
       </c>
       <c r="J291" s="4">
         <f t="shared" si="1"/>
-        <v>51.4</v>
+        <v>51.400000000000006</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -13052,32 +12442,32 @@
       </c>
       <c r="M291">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13">
+        <v>22.000000000000004</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>43693</v>
       </c>
       <c r="B292" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C292" s="3">
         <v>27.1</v>
       </c>
       <c r="D292" s="4">
         <f t="shared" si="0"/>
-        <v>90.2</v>
+        <v>90.199999999999989</v>
       </c>
       <c r="E292">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F292">
         <v>12.2</v>
       </c>
       <c r="G292">
         <f t="shared" si="2"/>
-        <v>105.6</v>
+        <v>105.59999999999998</v>
       </c>
       <c r="H292" s="2">
         <v>0</v>
@@ -13097,10 +12487,10 @@
       </c>
       <c r="M292">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13">
+        <v>15.000000000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>43700</v>
       </c>
@@ -13112,17 +12502,17 @@
       </c>
       <c r="D293" s="4">
         <f t="shared" si="0"/>
-        <v>85.9</v>
+        <v>85.899999999999991</v>
       </c>
       <c r="E293">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F293">
         <v>13.8</v>
       </c>
       <c r="G293">
         <f t="shared" si="2"/>
-        <v>96.2</v>
+        <v>96.199999999999989</v>
       </c>
       <c r="H293" s="2">
         <v>9.5</v>
@@ -13142,10 +12532,10 @@
       </c>
       <c r="M293">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13">
+        <v>13.000000000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>43707</v>
       </c>
@@ -13157,7 +12547,7 @@
       </c>
       <c r="D294" s="4">
         <f t="shared" si="0"/>
-        <v>71.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E294">
         <v>4</v>
@@ -13167,7 +12557,7 @@
       </c>
       <c r="G294">
         <f t="shared" si="2"/>
-        <v>94.2</v>
+        <v>94.199999999999989</v>
       </c>
       <c r="H294" s="2">
         <v>4.7</v>
@@ -13187,15 +12577,15 @@
       </c>
       <c r="M294">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13">
+        <v>14.000000000000004</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>43714</v>
       </c>
       <c r="B295" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C295" s="3">
         <v>5.6</v>
@@ -13212,7 +12602,7 @@
       </c>
       <c r="G295">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>85.999999999999986</v>
       </c>
       <c r="H295" s="2">
         <v>0.9</v>
@@ -13225,17 +12615,17 @@
         <v>37.9</v>
       </c>
       <c r="K295">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L295">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M295">
         <f t="shared" si="3"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13">
+        <v>12.500000000000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>43721</v>
       </c>
@@ -13257,7 +12647,7 @@
       </c>
       <c r="G296">
         <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>81.699999999999989</v>
       </c>
       <c r="H296" s="2">
         <v>1</v>
@@ -13267,20 +12657,20 @@
       </c>
       <c r="J296" s="4">
         <f t="shared" si="1"/>
-        <v>26.6</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="K296">
         <v>2.1</v>
       </c>
       <c r="L296">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M296">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13">
+        <v>10.000000000000004</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>43728</v>
       </c>
@@ -13302,17 +12692,17 @@
       </c>
       <c r="G297">
         <f t="shared" si="2"/>
-        <v>77.3</v>
+        <v>77.299999999999983</v>
       </c>
       <c r="H297" s="2">
         <v>11.7</v>
       </c>
       <c r="I297" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J297" s="4">
         <f t="shared" si="1"/>
-        <v>21.7</v>
+        <v>21.699999999999996</v>
       </c>
       <c r="K297">
         <v>0.7</v>
@@ -13322,10 +12712,10 @@
       </c>
       <c r="M297">
         <f t="shared" si="3"/>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13">
+        <v>10.700000000000003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>43742</v>
       </c>
@@ -13366,7 +12756,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>43749</v>
       </c>
@@ -13374,10 +12764,10 @@
         <v>10.8</v>
       </c>
       <c r="C299" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D299" s="4">
-        <f>D298+B299-C299</f>
+        <f t="shared" ref="D299:D305" si="4">D298+B299-C299</f>
         <v>61.5</v>
       </c>
       <c r="E299">
@@ -13387,8 +12777,8 @@
         <v>1.8</v>
       </c>
       <c r="G299">
-        <f>G298+E299-F299</f>
-        <v>61.3</v>
+        <f t="shared" ref="G299:G305" si="5">G298+E299-F299</f>
+        <v>61.300000000000004</v>
       </c>
       <c r="H299" s="2">
         <v>9.9</v>
@@ -13397,8 +12787,8 @@
         <v>8.9</v>
       </c>
       <c r="J299" s="4">
-        <f>J298+H299-I299</f>
-        <v>19.3</v>
+        <f t="shared" ref="J299:J305" si="6">J298+H299-I299</f>
+        <v>19.300000000000004</v>
       </c>
       <c r="K299">
         <v>0</v>
@@ -13407,11 +12797,11 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <f>M298+K299-L299</f>
+        <f t="shared" ref="M299:M305" si="7">M298+K299-L299</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>43756</v>
       </c>
@@ -13422,18 +12812,18 @@
         <v>6.3</v>
       </c>
       <c r="D300" s="4">
-        <f>D299+B300-C300</f>
+        <f t="shared" si="4"/>
         <v>61.2</v>
       </c>
       <c r="E300">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F300">
         <v>2.1</v>
       </c>
       <c r="G300">
-        <f>G299+E300-F300</f>
-        <v>63.8</v>
+        <f t="shared" si="5"/>
+        <v>63.800000000000004</v>
       </c>
       <c r="H300" s="2">
         <v>1</v>
@@ -13442,8 +12832,8 @@
         <v>1.6</v>
       </c>
       <c r="J300" s="4">
-        <f>J299+H300-I300</f>
-        <v>18.7</v>
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -13452,11 +12842,11 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <f>M299+K300-L300</f>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>43763</v>
       </c>
@@ -13467,8 +12857,8 @@
         <v>13.8</v>
       </c>
       <c r="D301" s="4">
-        <f>D300+B301-C301</f>
-        <v>54.9</v>
+        <f t="shared" si="4"/>
+        <v>54.900000000000006</v>
       </c>
       <c r="E301">
         <v>4.8</v>
@@ -13477,8 +12867,8 @@
         <v>5.3</v>
       </c>
       <c r="G301">
-        <f>G300+E301-F301</f>
-        <v>63.3</v>
+        <f t="shared" si="5"/>
+        <v>63.300000000000011</v>
       </c>
       <c r="H301" s="2">
         <v>3.1</v>
@@ -13487,8 +12877,8 @@
         <v>1.9</v>
       </c>
       <c r="J301" s="4">
-        <f>J300+H301-I301</f>
-        <v>19.9</v>
+        <f t="shared" si="6"/>
+        <v>19.900000000000006</v>
       </c>
       <c r="K301">
         <v>2.6</v>
@@ -13497,11 +12887,11 @@
         <v>5.5</v>
       </c>
       <c r="M301">
-        <f>M300+K301-L301</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13">
+        <f t="shared" si="7"/>
+        <v>1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <f>A301+7</f>
         <v>43770</v>
@@ -13513,8 +12903,8 @@
         <v>20.9</v>
       </c>
       <c r="D302" s="4">
-        <f>D301+B302-C302</f>
-        <v>46.2</v>
+        <f t="shared" si="4"/>
+        <v>46.20000000000001</v>
       </c>
       <c r="E302">
         <v>14.2</v>
@@ -13523,8 +12913,8 @@
         <v>14</v>
       </c>
       <c r="G302">
-        <f>G301+E302-F302</f>
-        <v>63.5</v>
+        <f t="shared" si="5"/>
+        <v>63.500000000000014</v>
       </c>
       <c r="H302" s="2">
         <v>2.7</v>
@@ -13533,8 +12923,8 @@
         <v>4.7</v>
       </c>
       <c r="J302" s="4">
-        <f>J301+H302-I302</f>
-        <v>17.9</v>
+        <f t="shared" si="6"/>
+        <v>17.900000000000006</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -13543,13 +12933,377 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <f>M301+K302-L302</f>
+        <f t="shared" si="7"/>
+        <v>1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <f>A302+7</f>
+        <v>43777</v>
+      </c>
+      <c r="B303" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C303" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="D303" s="4">
+        <f t="shared" si="4"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="E303">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F303">
+        <v>13</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="5"/>
+        <v>58.800000000000011</v>
+      </c>
+      <c r="H303" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I303" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="J303" s="4">
+        <f t="shared" si="6"/>
+        <v>19.700000000000003</v>
+      </c>
+      <c r="K303">
+        <v>3.8</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <f t="shared" si="7"/>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <f>A303+7</f>
+        <v>43784</v>
+      </c>
+      <c r="B304" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="C304" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="D304" s="4">
+        <f t="shared" si="4"/>
+        <v>44.800000000000004</v>
+      </c>
+      <c r="E304">
+        <v>11.8</v>
+      </c>
+      <c r="F304">
+        <v>10</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="5"/>
+        <v>60.600000000000009</v>
+      </c>
+      <c r="H304" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="I304" s="3">
+        <v>0</v>
+      </c>
+      <c r="J304" s="4">
+        <f t="shared" si="6"/>
+        <v>22.300000000000004</v>
+      </c>
+      <c r="K304">
+        <v>4.5</v>
+      </c>
+      <c r="L304">
+        <v>5</v>
+      </c>
+      <c r="M304">
+        <f t="shared" si="7"/>
+        <v>4.8999999999999986</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <f>A304+7</f>
+        <v>43791</v>
+      </c>
+      <c r="B305" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="C305" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="D305" s="4">
+        <f t="shared" si="4"/>
+        <v>53.300000000000011</v>
+      </c>
+      <c r="E305">
+        <v>14.3</v>
+      </c>
+      <c r="F305">
+        <v>11</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="5"/>
+        <v>63.900000000000006</v>
+      </c>
+      <c r="H305" s="2">
+        <v>9</v>
+      </c>
+      <c r="I305" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="J305" s="4">
+        <f t="shared" si="6"/>
+        <v>18.800000000000004</v>
+      </c>
+      <c r="K305">
+        <v>1.7</v>
+      </c>
+      <c r="L305">
+        <v>4.7</v>
+      </c>
+      <c r="M305">
+        <f t="shared" si="7"/>
+        <v>1.8999999999999986</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <f>A305+7</f>
+        <v>43798</v>
+      </c>
+      <c r="B306" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="C306" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="D306" s="4">
+        <f>D305+B306-C306</f>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="E306">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F306">
+        <v>7.8</v>
+      </c>
+      <c r="G306">
+        <f>G305+E306-F306</f>
+        <v>75.500000000000014</v>
+      </c>
+      <c r="H306" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I306" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="J306" s="4">
+        <f>J305+H306-I306</f>
+        <v>24.800000000000004</v>
+      </c>
+      <c r="K306">
+        <v>7.6</v>
+      </c>
+      <c r="L306">
+        <v>3.3</v>
+      </c>
+      <c r="M306">
+        <f>M305+K306-L306</f>
+        <v>6.1999999999999984</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B307" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="C307" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="D307" s="4">
+        <f>D306+B307-C307</f>
+        <v>67.800000000000011</v>
+      </c>
+      <c r="E307" s="9">
+        <v>24.7</v>
+      </c>
+      <c r="F307" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="G307">
+        <f>G306+E307-F307</f>
+        <v>88.100000000000023</v>
+      </c>
+      <c r="H307" s="2">
+        <v>10</v>
+      </c>
+      <c r="I307" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="J307" s="4">
+        <f>J306+H307-I307</f>
+        <v>24.400000000000006</v>
+      </c>
+      <c r="K307" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="L307" s="9">
+        <v>5.8</v>
+      </c>
+      <c r="M307">
+        <f>M306+K307-L307</f>
+        <v>8.4999999999999964</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B308" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C308" s="9">
+        <v>23.2</v>
+      </c>
+      <c r="D308" s="4">
+        <f>D307+B308-C308</f>
+        <v>69.000000000000014</v>
+      </c>
+      <c r="E308" s="9">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F308" s="9">
+        <v>31.9</v>
+      </c>
+      <c r="G308">
+        <f>G307+E308-F308</f>
+        <v>89.000000000000028</v>
+      </c>
+      <c r="H308" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="I308" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="J308" s="4">
+        <f>J307+H308-I308</f>
+        <v>22.800000000000008</v>
+      </c>
+      <c r="K308" s="9">
+        <v>7</v>
+      </c>
+      <c r="L308" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="M308">
+        <f>M307+K308-L308</f>
+        <v>9.2999999999999972</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B309" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="C309" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D309" s="4">
+        <f>D308+B309-C309</f>
+        <v>66.100000000000023</v>
+      </c>
+      <c r="E309" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="F309" s="9">
+        <v>13</v>
+      </c>
+      <c r="G309">
+        <f>G308+E309-F309</f>
+        <v>91.800000000000026</v>
+      </c>
+      <c r="H309" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I309" s="9">
+        <v>3</v>
+      </c>
+      <c r="J309" s="4">
+        <f>J308+H309-I309</f>
+        <v>29.20000000000001</v>
+      </c>
+      <c r="K309" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="L309" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="M309">
+        <f>M308+K309-L309</f>
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B310" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="C310" s="9">
+        <v>28.6</v>
+      </c>
+      <c r="D310" s="4">
+        <f>D309+B310-C310</f>
+        <v>63.300000000000018</v>
+      </c>
+      <c r="E310" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="F310" s="9">
+        <v>20</v>
+      </c>
+      <c r="G310">
+        <f>G309+E310-F310</f>
+        <v>91.300000000000026</v>
+      </c>
+      <c r="H310" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="I310" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="J310" s="4">
+        <f>J309+H310-I310</f>
+        <v>28.300000000000004</v>
+      </c>
+      <c r="K310" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L310" s="9">
         <v>1.6</v>
       </c>
+      <c r="M310">
+        <f>M309+K310-L310</f>
+        <v>11.399999999999999</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>